--- a/code_generate_figures/data/ranks_all_spt_DIA_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_spt_DIA_ensemble_topk.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">top2</t>
   </si>
   <si>
-    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv</t>
+    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top2</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">top3</t>
   </si>
   <si>
-    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top3</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">top4</t>
   </si>
   <si>
-    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv</t>
+    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top4</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">top5</t>
   </si>
   <si>
-    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv</t>
+    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top5</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">top6</t>
   </si>
   <si>
-    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv</t>
+    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top6</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">top7</t>
   </si>
   <si>
-    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv</t>
+    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top7</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">top8</t>
   </si>
   <si>
-    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv</t>
+    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top8</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">top9</t>
   </si>
   <si>
-    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv</t>
+    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top9</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">top10</t>
   </si>
   <si>
-    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv</t>
+    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top10</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">top11</t>
   </si>
   <si>
-    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv</t>
+    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top11</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">top12</t>
   </si>
   <si>
-    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv</t>
+    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top12</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">top13</t>
   </si>
   <si>
-    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv</t>
+    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top13</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">top14</t>
   </si>
   <si>
-    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv</t>
+    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top14</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">top15</t>
   </si>
   <si>
-    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq__.csv</t>
+    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top15</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">top16</t>
   </si>
   <si>
-    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq__.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.mean.csv</t>
+    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top16</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">top17</t>
   </si>
   <si>
-    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq__.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.mean.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.median.csv</t>
+    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top17</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">top18</t>
   </si>
   <si>
-    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq__.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.mean.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.median.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_center.mean.csv</t>
+    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_QRILC_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top18</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">top19</t>
   </si>
   <si>
-    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_min_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_zero_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq__.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.mean.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_center.median.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_center.mean.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_quantiles.csv</t>
+    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinProb_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_GMS_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_bpca_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_mice_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_nbavg_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_knn_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_QRILC_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top19</t>
@@ -959,43 +959,43 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.764000982352941</v>
+        <v>0.764017217647059</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7804347</v>
+        <v>0.7814182</v>
       </c>
       <c r="J2" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8206411</v>
+        <v>0.821667082352941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.87263105</v>
+        <v>0.8784957</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8427229</v>
+        <v>0.843804888235294</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.90130735</v>
+        <v>0.9068858</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T2" t="n">
-        <v>0.587752423529412</v>
+        <v>0.601764323529412</v>
       </c>
       <c r="U2" t="n">
         <v>0.5</v>
@@ -1004,25 +1004,25 @@
         <v>54</v>
       </c>
       <c r="W2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>0.220169064705882</v>
+        <v>0.245235470588235</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.2</v>
+        <v>44.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.6</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="3">
@@ -1048,70 +1048,70 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.774624617647059</v>
+        <v>0.764577082352941</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7899958</v>
+        <v>0.7846212</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
-        <v>0.829350158823529</v>
+        <v>0.817684994117647</v>
       </c>
       <c r="M3" t="n">
-        <v>0.86805515</v>
+        <v>0.8661824</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>0.849436594117647</v>
+        <v>0.837094317647059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.89207925</v>
+        <v>0.8910546</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="S3" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="T3" t="n">
-        <v>0.587480329411765</v>
+        <v>0.584982147058824</v>
       </c>
       <c r="U3" t="n">
         <v>0.5</v>
       </c>
       <c r="V3" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="W3" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X3" t="n">
-        <v>0.219388823529412</v>
+        <v>0.216615617647059</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.2</v>
+        <v>66</v>
       </c>
       <c r="AC3" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1137,70 +1137,70 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0.774320205882353</v>
+        <v>0.7651547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7849916</v>
+        <v>0.7889608</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8296368</v>
+        <v>0.818308058823529</v>
       </c>
       <c r="M4" t="n">
-        <v>0.86657725</v>
+        <v>0.8676349</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="O4" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P4" t="n">
-        <v>0.850023194117647</v>
+        <v>0.838134129411765</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8917779</v>
+        <v>0.8927823</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="T4" t="n">
-        <v>0.585586382352941</v>
+        <v>0.585876147058824</v>
       </c>
       <c r="U4" t="n">
         <v>0.5</v>
       </c>
       <c r="V4" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="W4" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X4" t="n">
-        <v>0.217898558823529</v>
+        <v>0.217841211764706</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="n">
-        <v>31.2</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="n">
-        <v>43</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="5">
@@ -1226,70 +1226,70 @@
         <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>0.762795464705882</v>
+        <v>0.762761841176471</v>
       </c>
       <c r="I5" t="n">
-        <v>0.77877385</v>
+        <v>0.7814182</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L5" t="n">
-        <v>0.820793088235294</v>
+        <v>0.820769794117647</v>
       </c>
       <c r="M5" t="n">
-        <v>0.87464195</v>
+        <v>0.8786087</v>
       </c>
       <c r="N5" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>0.842976676470588</v>
+        <v>0.8432944</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.903033</v>
+        <v>0.9071065</v>
       </c>
       <c r="R5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T5" t="n">
-        <v>0.620652688235294</v>
+        <v>0.606770152941176</v>
       </c>
       <c r="U5" t="n">
-        <v>0.56032635</v>
+        <v>0.5</v>
       </c>
       <c r="V5" t="n">
         <v>53</v>
       </c>
       <c r="W5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X5" t="n">
-        <v>0.286256717647059</v>
+        <v>0.257505447058824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.14312835</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>53</v>
       </c>
       <c r="AA5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>40.2</v>
+        <v>46.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>29.2</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="6">
@@ -1315,70 +1315,70 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.773105594117647</v>
+        <v>0.764229464705882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.78683135</v>
+        <v>0.7846212</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>0.827978029411765</v>
+        <v>0.817103811764706</v>
       </c>
       <c r="M6" t="n">
-        <v>0.86511415</v>
+        <v>0.8661324</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O6" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P6" t="n">
-        <v>0.847441870588235</v>
+        <v>0.836607441176471</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8878678</v>
+        <v>0.8910418</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="S6" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T6" t="n">
-        <v>0.586877635294118</v>
+        <v>0.584361829411765</v>
       </c>
       <c r="U6" t="n">
         <v>0.5</v>
       </c>
       <c r="V6" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="W6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X6" t="n">
-        <v>0.218422223529412</v>
+        <v>0.215564752941176</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB6" t="n">
-        <v>29.4</v>
+        <v>68</v>
       </c>
       <c r="AC6" t="n">
-        <v>44.2</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="7">
@@ -1404,70 +1404,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.770034882352941</v>
+        <v>0.760857547058823</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7859412</v>
+        <v>0.7747337</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="L7" t="n">
-        <v>0.823185076470588</v>
+        <v>0.816479376470588</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8761213</v>
+        <v>0.869171</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="P7" t="n">
-        <v>0.844374076470588</v>
+        <v>0.837204723529412</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9033726</v>
+        <v>0.8957134</v>
       </c>
       <c r="R7" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="T7" t="n">
-        <v>0.586101611764706</v>
+        <v>0.588603370588235</v>
       </c>
       <c r="U7" t="n">
         <v>0.5</v>
       </c>
       <c r="V7" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X7" t="n">
-        <v>0.218294764705882</v>
+        <v>0.220778705882353</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB7" t="n">
-        <v>34.8</v>
+        <v>63.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>25.6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1493,70 +1493,70 @@
         <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>0.759491405882353</v>
+        <v>0.761152705882353</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7761739</v>
+        <v>0.779105</v>
       </c>
       <c r="J8" t="n">
+        <v>57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.820751311764706</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8800402</v>
+      </c>
+      <c r="N8" t="n">
         <v>43</v>
       </c>
-      <c r="K8" t="n">
-        <v>35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.820737047058824</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.8749061</v>
-      </c>
-      <c r="N8" t="n">
-        <v>37</v>
-      </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>0.843741094117647</v>
+        <v>0.843412894117647</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.90429435</v>
+        <v>0.9088338</v>
       </c>
       <c r="R8" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T8" t="n">
-        <v>0.635661882352941</v>
+        <v>0.610776805882353</v>
       </c>
       <c r="U8" t="n">
-        <v>0.62277585</v>
+        <v>0.5</v>
       </c>
       <c r="V8" t="n">
         <v>52</v>
       </c>
       <c r="W8" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X8" t="n">
-        <v>0.314769217647059</v>
+        <v>0.264794776470588</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.27447695</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>52</v>
       </c>
       <c r="AA8" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AC8" t="n">
-        <v>29.2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1582,70 +1582,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.771517347058824</v>
+        <v>0.764964635294118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7850032</v>
+        <v>0.7866137</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>0.825419635294118</v>
+        <v>0.816811788235294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8574708</v>
+        <v>0.8670792</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="O9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
-        <v>0.844172647058824</v>
+        <v>0.835995970588235</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.87868945</v>
+        <v>0.8910774</v>
       </c>
       <c r="R9" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="S9" t="n">
         <v>60</v>
       </c>
       <c r="T9" t="n">
-        <v>0.585938129411765</v>
+        <v>0.583344335294118</v>
       </c>
       <c r="U9" t="n">
         <v>0.5</v>
       </c>
       <c r="V9" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W9" t="n">
         <v>59</v>
       </c>
       <c r="X9" t="n">
-        <v>0.216364664705882</v>
+        <v>0.214482882352941</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="n">
         <v>59</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>68.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>48.8</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="10">
@@ -1671,70 +1671,70 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.767993570588235</v>
+        <v>0.766480682352941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7840431</v>
+        <v>0.7995401</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0.821031223529412</v>
+        <v>0.819060129411765</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8728817</v>
+        <v>0.8680639</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="P10" t="n">
-        <v>0.841316729411765</v>
+        <v>0.839235764705882</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.89991005</v>
+        <v>0.894026</v>
       </c>
       <c r="R10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S10" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="T10" t="n">
-        <v>0.586021105882353</v>
+        <v>0.586130117647059</v>
       </c>
       <c r="U10" t="n">
         <v>0.5</v>
       </c>
       <c r="V10" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="W10" t="n">
         <v>60</v>
       </c>
       <c r="X10" t="n">
-        <v>0.218224205882353</v>
+        <v>0.218029205882353</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="n">
         <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>44.8</v>
+        <v>58</v>
       </c>
       <c r="AC10" t="n">
-        <v>32.4</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="11">
@@ -1760,46 +1760,46 @@
         <v>54</v>
       </c>
       <c r="H11" t="n">
-        <v>0.759614588235294</v>
+        <v>0.759403641176471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7766571</v>
+        <v>0.7851895</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K11" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11" t="n">
-        <v>0.820771752941176</v>
+        <v>0.820619870588235</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8746508</v>
+        <v>0.8794072</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P11" t="n">
-        <v>0.843865964705882</v>
+        <v>0.843693305882353</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.90417665</v>
+        <v>0.9086981</v>
       </c>
       <c r="R11" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T11" t="n">
-        <v>0.637502641176471</v>
+        <v>0.637494694117647</v>
       </c>
       <c r="U11" t="n">
-        <v>0.63735895</v>
+        <v>0.6372153</v>
       </c>
       <c r="V11" t="n">
         <v>51</v>
@@ -1808,10 +1808,10 @@
         <v>51</v>
       </c>
       <c r="X11" t="n">
-        <v>0.318557064705882</v>
+        <v>0.318556958823529</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.30520735</v>
+        <v>0.2918576</v>
       </c>
       <c r="Z11" t="n">
         <v>51</v>
@@ -1820,10 +1820,10 @@
         <v>51</v>
       </c>
       <c r="AB11" t="n">
-        <v>39.6</v>
+        <v>47.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>28.8</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="12">
@@ -1849,40 +1849,40 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.770767470588235</v>
+        <v>0.770561664705882</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7850032</v>
+        <v>0.7937625</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>0.825083382352941</v>
+        <v>0.825001223529412</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8575222</v>
+        <v>0.8626823</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O12" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
-        <v>0.843967994117647</v>
+        <v>0.843866752941177</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8787269</v>
+        <v>0.8852398</v>
       </c>
       <c r="R12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="S12" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="T12" t="n">
         <v>0.585935541176471</v>
@@ -1891,7 +1891,7 @@
         <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="W12" t="n">
         <v>61</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="n">
         <v>61</v>
       </c>
       <c r="AB12" t="n">
-        <v>35.4</v>
+        <v>44.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>49.4</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="13">
@@ -1938,40 +1938,40 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.767476235294118</v>
+        <v>0.767287064705882</v>
       </c>
       <c r="I13" t="n">
-        <v>0.78763025</v>
+        <v>0.8013979</v>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.819480911764706</v>
+        <v>0.819353570588235</v>
       </c>
       <c r="M13" t="n">
-        <v>0.87240395</v>
+        <v>0.8748102</v>
       </c>
       <c r="N13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>0.839815635294118</v>
+        <v>0.839681270588235</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9009754</v>
+        <v>0.9040409</v>
       </c>
       <c r="R13" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S13" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="T13" t="n">
         <v>0.587138888235294</v>
@@ -1980,7 +1980,7 @@
         <v>0.5</v>
       </c>
       <c r="V13" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="W13" t="n">
         <v>62</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA13" t="n">
         <v>62</v>
       </c>
       <c r="AB13" t="n">
-        <v>48.4</v>
+        <v>54</v>
       </c>
       <c r="AC13" t="n">
-        <v>30.6</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="14">
@@ -2027,46 +2027,46 @@
         <v>59</v>
       </c>
       <c r="H14" t="n">
-        <v>0.759341729411765</v>
+        <v>0.759138105882353</v>
       </c>
       <c r="I14" t="n">
-        <v>0.77698305</v>
+        <v>0.7859623</v>
       </c>
       <c r="J14" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8210058</v>
+        <v>0.820858423529412</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8744582</v>
+        <v>0.8793302</v>
       </c>
       <c r="N14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P14" t="n">
-        <v>0.844177705882353</v>
+        <v>0.843994988235294</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.904314</v>
+        <v>0.9086565</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6401746</v>
+        <v>0.6401665</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6458263</v>
+        <v>0.651478</v>
       </c>
       <c r="V14" t="n">
         <v>50</v>
@@ -2075,10 +2075,10 @@
         <v>50</v>
       </c>
       <c r="X14" t="n">
-        <v>0.323773288235294</v>
+        <v>0.323773164705882</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.32390515</v>
+        <v>0.324037</v>
       </c>
       <c r="Z14" t="n">
         <v>50</v>
@@ -2087,10 +2087,10 @@
         <v>50</v>
       </c>
       <c r="AB14" t="n">
-        <v>37</v>
+        <v>45.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>28.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2116,40 +2116,40 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.770374017647059</v>
+        <v>0.770184364705882</v>
       </c>
       <c r="I15" t="n">
-        <v>0.78437405</v>
+        <v>0.7924745</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>0.824940135294118</v>
+        <v>0.824855194117647</v>
       </c>
       <c r="M15" t="n">
-        <v>0.85739375</v>
+        <v>0.8626823</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>0.843845941176471</v>
+        <v>0.843743735294118</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.87863825</v>
+        <v>0.8851943</v>
       </c>
       <c r="R15" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S15" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="T15" t="n">
         <v>0.585792388235294</v>
@@ -2158,7 +2158,7 @@
         <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="W15" t="n">
         <v>63</v>
@@ -2170,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
         <v>63</v>
       </c>
       <c r="AB15" t="n">
-        <v>37</v>
+        <v>46.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>51.4</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="16">
@@ -2205,40 +2205,40 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.767158388235294</v>
+        <v>0.766939776470588</v>
       </c>
       <c r="I16" t="n">
-        <v>0.784354</v>
+        <v>0.795473</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>0.820983694117647</v>
+        <v>0.820850058823529</v>
       </c>
       <c r="M16" t="n">
-        <v>0.87274905</v>
+        <v>0.8755862</v>
       </c>
       <c r="N16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P16" t="n">
-        <v>0.841796664705882</v>
+        <v>0.841663182352941</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.90193905</v>
+        <v>0.906809</v>
       </c>
       <c r="R16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="T16" t="n">
         <v>0.5865933</v>
@@ -2247,7 +2247,7 @@
         <v>0.5</v>
       </c>
       <c r="V16" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="W16" t="n">
         <v>64</v>
@@ -2265,10 +2265,10 @@
         <v>64</v>
       </c>
       <c r="AB16" t="n">
-        <v>44.6</v>
+        <v>53.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>33</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="17">
@@ -2294,46 +2294,46 @@
         <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>0.759292223529412</v>
+        <v>0.759066411764706</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7770942</v>
+        <v>0.7876728</v>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L17" t="n">
-        <v>0.821397917647059</v>
+        <v>0.821246329411765</v>
       </c>
       <c r="M17" t="n">
-        <v>0.87541355</v>
+        <v>0.8799054</v>
       </c>
       <c r="N17" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P17" t="n">
-        <v>0.844954576470588</v>
+        <v>0.844742935294118</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.90502</v>
+        <v>0.9092514</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T17" t="n">
-        <v>0.642922764705882</v>
+        <v>0.642914723529412</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6530408</v>
+        <v>0.6631588</v>
       </c>
       <c r="V17" t="n">
         <v>49</v>
@@ -2342,10 +2342,10 @@
         <v>49</v>
       </c>
       <c r="X17" t="n">
-        <v>0.329305423529412</v>
+        <v>0.3293053</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.33881735</v>
+        <v>0.3483293</v>
       </c>
       <c r="Z17" t="n">
         <v>49</v>
@@ -2354,10 +2354,10 @@
         <v>49</v>
       </c>
       <c r="AB17" t="n">
-        <v>36</v>
+        <v>44.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>26.4</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="18">
@@ -2383,40 +2383,40 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.768253605882353</v>
+        <v>0.768045305882353</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7759183</v>
+        <v>0.7756581</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K18" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L18" t="n">
-        <v>0.822732423529412</v>
+        <v>0.822639823529412</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8499808</v>
+        <v>0.8626913</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P18" t="n">
-        <v>0.841662647058824</v>
+        <v>0.841553488235294</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.87520385</v>
+        <v>0.885078</v>
       </c>
       <c r="R18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S18" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="T18" t="n">
         <v>0.585533588235294</v>
@@ -2425,7 +2425,7 @@
         <v>0.5</v>
       </c>
       <c r="V18" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="W18" t="n">
         <v>65</v>
@@ -2437,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="n">
         <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>43.8</v>
+        <v>52.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>58.6</v>
+        <v>67.6</v>
       </c>
     </row>
     <row r="19">
@@ -2472,40 +2472,40 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.769902141176471</v>
+        <v>0.769728476470588</v>
       </c>
       <c r="I19" t="n">
-        <v>0.78416965</v>
+        <v>0.7947929</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>0.822656894117647</v>
+        <v>0.822534047058823</v>
       </c>
       <c r="M19" t="n">
-        <v>0.87263125</v>
+        <v>0.874009</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P19" t="n">
-        <v>0.843797076470588</v>
+        <v>0.843669758823529</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.90303245</v>
+        <v>0.9064043</v>
       </c>
       <c r="R19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T19" t="n">
         <v>0.586959182352941</v>
@@ -2514,7 +2514,7 @@
         <v>0.5</v>
       </c>
       <c r="V19" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="W19" t="n">
         <v>66</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA19" t="n">
         <v>66</v>
       </c>
       <c r="AB19" t="n">
-        <v>34.6</v>
+        <v>46.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>33.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="20">
@@ -2561,46 +2561,46 @@
         <v>69</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7589355</v>
+        <v>0.758709923529412</v>
       </c>
       <c r="I20" t="n">
-        <v>0.77287735</v>
+        <v>0.7796149</v>
       </c>
       <c r="J20" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K20" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L20" t="n">
-        <v>0.822270758823529</v>
+        <v>0.822083629411765</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8671069</v>
+        <v>0.8812182</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O20" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="P20" t="n">
-        <v>0.846697723529412</v>
+        <v>0.846482370588235</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.89694155</v>
+        <v>0.9106489</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="S20" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6477981</v>
+        <v>0.647789911764706</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6562809</v>
+        <v>0.6647637</v>
       </c>
       <c r="V20" t="n">
         <v>48</v>
@@ -2609,10 +2609,10 @@
         <v>48</v>
       </c>
       <c r="X20" t="n">
-        <v>0.338866394117647</v>
+        <v>0.338866229411765</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3452645</v>
+        <v>0.3516626</v>
       </c>
       <c r="Z20" t="n">
         <v>48</v>
@@ -2621,10 +2621,10 @@
         <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>32.8</v>
+        <v>43.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>40.8</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="21">
@@ -2650,70 +2650,70 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.771427076470588</v>
+        <v>0.765016135294118</v>
       </c>
       <c r="I21" t="n">
-        <v>0.77391215</v>
+        <v>0.7763972</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L21" t="n">
-        <v>0.824953435294118</v>
+        <v>0.817032558823529</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8499631</v>
+        <v>0.8629553</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="O21" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P21" t="n">
-        <v>0.842890476470588</v>
+        <v>0.834390447058823</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8751153</v>
+        <v>0.8852258</v>
       </c>
       <c r="R21" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="S21" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="T21" t="n">
-        <v>0.585694870588235</v>
+        <v>0.585547917647059</v>
       </c>
       <c r="U21" t="n">
         <v>0.5</v>
       </c>
       <c r="V21" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W21" t="n">
         <v>67</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2131891</v>
+        <v>0.212974023529412</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AA21" t="n">
         <v>67</v>
       </c>
       <c r="AB21" t="n">
-        <v>38.2</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="n">
-        <v>60.6</v>
+        <v>67.4</v>
       </c>
     </row>
     <row r="22">
@@ -2739,70 +2739,70 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.767554358823529</v>
+        <v>0.767283923529412</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7818297</v>
+        <v>0.7910348</v>
       </c>
       <c r="J22" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>0.821704223529412</v>
+        <v>0.821261547058823</v>
       </c>
       <c r="M22" t="n">
-        <v>0.87236175</v>
+        <v>0.8700722</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="O22" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="P22" t="n">
-        <v>0.842644241176471</v>
+        <v>0.842248452941176</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.903292</v>
+        <v>0.9044617</v>
       </c>
       <c r="R22" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="T22" t="n">
-        <v>0.587240664705882</v>
+        <v>0.587107247058824</v>
       </c>
       <c r="U22" t="n">
         <v>0.5</v>
       </c>
       <c r="V22" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="W22" t="n">
         <v>68</v>
       </c>
       <c r="X22" t="n">
-        <v>0.219501064705882</v>
+        <v>0.219280605882353</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AA22" t="n">
         <v>68</v>
       </c>
       <c r="AB22" t="n">
-        <v>37.2</v>
+        <v>50.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>35.4</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="23">
@@ -2828,46 +2828,46 @@
         <v>74</v>
       </c>
       <c r="H23" t="n">
-        <v>0.757108447058824</v>
+        <v>0.770568082352941</v>
       </c>
       <c r="I23" t="n">
-        <v>0.77097945</v>
+        <v>0.7802023</v>
       </c>
       <c r="J23" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L23" t="n">
-        <v>0.821679382352941</v>
+        <v>0.840005611764706</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8669983</v>
+        <v>0.8876555</v>
       </c>
       <c r="N23" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>0.845970582352941</v>
+        <v>0.861719711764706</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8966722</v>
+        <v>0.9177239</v>
       </c>
       <c r="R23" t="n">
         <v>8</v>
       </c>
       <c r="S23" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T23" t="n">
-        <v>0.651158082352941</v>
+        <v>0.706908688235294</v>
       </c>
       <c r="U23" t="n">
-        <v>0.6579609</v>
+        <v>0.7331441</v>
       </c>
       <c r="V23" t="n">
         <v>47</v>
@@ -2876,10 +2876,10 @@
         <v>47</v>
       </c>
       <c r="X23" t="n">
-        <v>0.346460758823529</v>
+        <v>0.462544617647059</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.3490617</v>
+        <v>0.5499334</v>
       </c>
       <c r="Z23" t="n">
         <v>47</v>
@@ -2888,10 +2888,10 @@
         <v>47</v>
       </c>
       <c r="AB23" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AC23" t="n">
-        <v>42.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2917,70 +2917,70 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.769501994117647</v>
+        <v>0.772341941176471</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7729496</v>
+        <v>0.7815707</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>42</v>
       </c>
       <c r="L24" t="n">
-        <v>0.824063864705882</v>
+        <v>0.823225923529412</v>
       </c>
       <c r="M24" t="n">
-        <v>0.84998255</v>
+        <v>0.8650392</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O24" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P24" t="n">
-        <v>0.842161582352941</v>
+        <v>0.838520835294118</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8750401</v>
+        <v>0.8865269</v>
       </c>
       <c r="R24" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T24" t="n">
-        <v>0.585529247058823</v>
+        <v>0.587020176470588</v>
       </c>
       <c r="U24" t="n">
         <v>0.5</v>
       </c>
       <c r="V24" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W24" t="n">
         <v>69</v>
       </c>
       <c r="X24" t="n">
-        <v>0.212851564705882</v>
+        <v>0.213112341176471</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA24" t="n">
         <v>69</v>
       </c>
       <c r="AB24" t="n">
-        <v>41.8</v>
+        <v>49</v>
       </c>
       <c r="AC24" t="n">
-        <v>61.4</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="25">
@@ -3006,70 +3006,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.765638652941177</v>
+        <v>0.769217264705882</v>
       </c>
       <c r="I25" t="n">
-        <v>0.78393485</v>
+        <v>0.7902156</v>
       </c>
       <c r="J25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K25" t="n">
         <v>18</v>
       </c>
       <c r="L25" t="n">
-        <v>0.820573288235294</v>
+        <v>0.823793123529412</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8741928</v>
+        <v>0.87359</v>
       </c>
       <c r="N25" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P25" t="n">
-        <v>0.841806317647059</v>
+        <v>0.845736852941177</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.90474905</v>
+        <v>0.9058108</v>
       </c>
       <c r="R25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T25" t="n">
-        <v>0.587347105882353</v>
+        <v>0.590856770588235</v>
       </c>
       <c r="U25" t="n">
         <v>0.5</v>
       </c>
       <c r="V25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W25" t="n">
         <v>70</v>
       </c>
       <c r="X25" t="n">
-        <v>0.219378247058824</v>
+        <v>0.225440617647059</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA25" t="n">
         <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>45.8</v>
+        <v>42</v>
       </c>
       <c r="AC25" t="n">
-        <v>33.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="26">
@@ -3095,58 +3095,58 @@
         <v>79</v>
       </c>
       <c r="H26" t="n">
-        <v>0.757253805882353</v>
+        <v>0.771384517647059</v>
       </c>
       <c r="I26" t="n">
-        <v>0.77262945</v>
+        <v>0.7787527</v>
       </c>
       <c r="J26" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L26" t="n">
-        <v>0.822391652941176</v>
+        <v>0.8400297</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8674486</v>
+        <v>0.8875925</v>
       </c>
       <c r="N26" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
-        <v>0.846728923529412</v>
+        <v>0.861912923529412</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8969187</v>
+        <v>0.9177387</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T26" t="n">
-        <v>0.653351364705882</v>
+        <v>0.710802005882353</v>
       </c>
       <c r="U26" t="n">
-        <v>0.66636185</v>
+        <v>0.7560378</v>
       </c>
       <c r="V26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X26" t="n">
-        <v>0.353250723529412</v>
+        <v>0.470874647058824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3843912</v>
+        <v>0.5501839</v>
       </c>
       <c r="Z26" t="n">
         <v>46</v>
@@ -3155,10 +3155,10 @@
         <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>32</v>
+        <v>23.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>39.8</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="27">
@@ -3184,70 +3184,70 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.766959447058824</v>
+        <v>0.772281023529412</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7716783</v>
+        <v>0.7815756</v>
       </c>
       <c r="J27" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L27" t="n">
-        <v>0.821522964705882</v>
+        <v>0.823260417647059</v>
       </c>
       <c r="M27" t="n">
-        <v>0.84998255</v>
+        <v>0.8650392</v>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O27" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P27" t="n">
-        <v>0.839665688235294</v>
+        <v>0.838407758823529</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8750274</v>
+        <v>0.8865275</v>
       </c>
       <c r="R27" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T27" t="n">
-        <v>0.585529247058823</v>
+        <v>0.587057017647059</v>
       </c>
       <c r="U27" t="n">
         <v>0.5</v>
       </c>
       <c r="V27" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="W27" t="n">
         <v>71</v>
       </c>
       <c r="X27" t="n">
-        <v>0.212851564705882</v>
+        <v>0.213125847058824</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="n">
         <v>71</v>
       </c>
       <c r="AB27" t="n">
-        <v>51.4</v>
+        <v>48.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>63.6</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="28">
@@ -3273,70 +3273,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.767419182352941</v>
+        <v>0.769800941176471</v>
       </c>
       <c r="I28" t="n">
-        <v>0.78139845</v>
+        <v>0.7895024</v>
       </c>
       <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
+        <v>0.8246416</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8736861</v>
+      </c>
+      <c r="N28" t="n">
         <v>22</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.821664164705882</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.87344525</v>
-      </c>
-      <c r="N28" t="n">
-        <v>21</v>
-      </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="P28" t="n">
-        <v>0.842512282352941</v>
+        <v>0.846891088235294</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.90408955</v>
+        <v>0.9034095</v>
       </c>
       <c r="R28" t="n">
+        <v>20</v>
+      </c>
+      <c r="S28" t="n">
         <v>29</v>
       </c>
-      <c r="S28" t="n">
-        <v>6</v>
-      </c>
       <c r="T28" t="n">
-        <v>0.587340417647059</v>
+        <v>0.590971223529412</v>
       </c>
       <c r="U28" t="n">
         <v>0.5</v>
       </c>
       <c r="V28" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W28" t="n">
         <v>72</v>
       </c>
       <c r="X28" t="n">
-        <v>0.219647964705882</v>
+        <v>0.225493794117647</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AA28" t="n">
         <v>72</v>
       </c>
       <c r="AB28" t="n">
-        <v>37.8</v>
+        <v>39.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>36</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="29">
@@ -3362,58 +3362,58 @@
         <v>84</v>
       </c>
       <c r="H29" t="n">
-        <v>0.755902317647059</v>
+        <v>0.769517547058823</v>
       </c>
       <c r="I29" t="n">
-        <v>0.76905225</v>
+        <v>0.7761734</v>
       </c>
       <c r="J29" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L29" t="n">
-        <v>0.822237888235294</v>
+        <v>0.839513688235294</v>
       </c>
       <c r="M29" t="n">
-        <v>0.86666245</v>
+        <v>0.8877892</v>
       </c>
       <c r="N29" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>0.846683817647059</v>
+        <v>0.861425141176471</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.89650145</v>
+        <v>0.9182746</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="T29" t="n">
-        <v>0.652347988235294</v>
+        <v>0.712106264705882</v>
       </c>
       <c r="U29" t="n">
-        <v>0.66619635</v>
+        <v>0.7576437</v>
       </c>
       <c r="V29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X29" t="n">
-        <v>0.354255688235294</v>
+        <v>0.475143297647059</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3848937</v>
+        <v>0.5526173</v>
       </c>
       <c r="Z29" t="n">
         <v>45</v>
@@ -3422,10 +3422,10 @@
         <v>45</v>
       </c>
       <c r="AB29" t="n">
-        <v>33.4</v>
+        <v>27.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>43.8</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="30">
@@ -3451,70 +3451,70 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.765727076470588</v>
+        <v>0.7708911</v>
       </c>
       <c r="I30" t="n">
-        <v>0.77106215</v>
+        <v>0.7815722</v>
       </c>
       <c r="J30" t="n">
+        <v>18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>40</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.822870176470588</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8650322</v>
+      </c>
+      <c r="N30" t="n">
         <v>30</v>
       </c>
-      <c r="K30" t="n">
-        <v>46</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.820775994117647</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.84998485</v>
-      </c>
-      <c r="N30" t="n">
-        <v>35</v>
-      </c>
       <c r="O30" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
-        <v>0.838942935294118</v>
+        <v>0.838013241176471</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8750286</v>
+        <v>0.8864992</v>
       </c>
       <c r="R30" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S30" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T30" t="n">
-        <v>0.584932535294118</v>
+        <v>0.586930894117647</v>
       </c>
       <c r="U30" t="n">
         <v>0.5</v>
       </c>
       <c r="V30" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W30" t="n">
         <v>73</v>
       </c>
       <c r="X30" t="n">
-        <v>0.211878388235294</v>
+        <v>0.212850164705882</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AA30" t="n">
         <v>73</v>
       </c>
       <c r="AB30" t="n">
-        <v>55.4</v>
+        <v>53.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>64</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="31">
@@ -3540,70 +3540,70 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.767817264705882</v>
+        <v>0.768481347058824</v>
       </c>
       <c r="I31" t="n">
-        <v>0.77755645</v>
+        <v>0.7896673</v>
       </c>
       <c r="J31" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K31" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L31" t="n">
-        <v>0.821509929411765</v>
+        <v>0.823909911764706</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8710111</v>
+        <v>0.8751639</v>
       </c>
       <c r="N31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
-        <v>0.842431117647059</v>
+        <v>0.846075770588235</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.90210745</v>
+        <v>0.9064853</v>
       </c>
       <c r="R31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S31" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T31" t="n">
-        <v>0.587297588235294</v>
+        <v>0.591459429411765</v>
       </c>
       <c r="U31" t="n">
         <v>0.5</v>
       </c>
       <c r="V31" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W31" t="n">
         <v>74</v>
       </c>
       <c r="X31" t="n">
-        <v>0.219495764705882</v>
+        <v>0.225763905882353</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA31" t="n">
         <v>74</v>
       </c>
       <c r="AB31" t="n">
-        <v>38.4</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="32">
@@ -3629,58 +3629,58 @@
         <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>0.755769776470588</v>
+        <v>0.771860388235294</v>
       </c>
       <c r="I32" t="n">
-        <v>0.76894425</v>
+        <v>0.7731542</v>
       </c>
       <c r="J32" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="K32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
-        <v>0.822216952941176</v>
+        <v>0.841660729411765</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8666301</v>
+        <v>0.8885583</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>0.846681917647059</v>
+        <v>0.864090423529412</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8966112</v>
+        <v>0.9187486</v>
       </c>
       <c r="R32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="T32" t="n">
-        <v>0.652385788235294</v>
+        <v>0.718959382352941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.66648465</v>
+        <v>0.7597718</v>
       </c>
       <c r="V32" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W32" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32" t="n">
-        <v>0.354326411764706</v>
+        <v>0.493634362352941</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.38492905</v>
+        <v>0.5583288</v>
       </c>
       <c r="Z32" t="n">
         <v>44</v>
@@ -3689,10 +3689,10 @@
         <v>44</v>
       </c>
       <c r="AB32" t="n">
-        <v>33.6</v>
+        <v>20.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>43.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3718,70 +3718,70 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.764614935294118</v>
+        <v>0.767925223529412</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7705281</v>
+        <v>0.7815722</v>
       </c>
       <c r="J33" t="n">
         <v>35</v>
       </c>
       <c r="K33" t="n">
+        <v>41</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.820219782352941</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8650402</v>
+      </c>
+      <c r="N33" t="n">
         <v>48</v>
       </c>
-      <c r="L33" t="n">
-        <v>0.818958141176471</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.85000275</v>
-      </c>
-      <c r="N33" t="n">
-        <v>49</v>
-      </c>
       <c r="O33" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P33" t="n">
-        <v>0.837281341176471</v>
+        <v>0.835043858823529</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8750378</v>
+        <v>0.8862202</v>
       </c>
       <c r="R33" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="S33" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="T33" t="n">
-        <v>0.584908688235294</v>
+        <v>0.586911511764706</v>
       </c>
       <c r="U33" t="n">
         <v>0.5</v>
       </c>
       <c r="V33" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W33" t="n">
         <v>75</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2118317</v>
+        <v>0.212817111764706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AA33" t="n">
         <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>60.4</v>
+        <v>64.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>64.8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -3807,70 +3807,70 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.767961570588235</v>
+        <v>0.769326994117647</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7765003</v>
+        <v>0.7875011</v>
       </c>
       <c r="J34" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K34" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.821692417647059</v>
+        <v>0.824984035294118</v>
       </c>
       <c r="M34" t="n">
-        <v>0.86758365</v>
+        <v>0.8736984</v>
       </c>
       <c r="N34" t="n">
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P34" t="n">
-        <v>0.842981941176471</v>
+        <v>0.847240070588235</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8990635</v>
+        <v>0.9045157</v>
       </c>
       <c r="R34" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S34" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="T34" t="n">
-        <v>0.587108129411765</v>
+        <v>0.591720735294118</v>
       </c>
       <c r="U34" t="n">
         <v>0.5</v>
       </c>
       <c r="V34" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W34" t="n">
         <v>76</v>
       </c>
       <c r="X34" t="n">
-        <v>0.219354058823529</v>
+        <v>0.225973723529412</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA34" t="n">
         <v>76</v>
       </c>
       <c r="AB34" t="n">
-        <v>37.2</v>
+        <v>38.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>46.6</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="35">
@@ -3896,70 +3896,70 @@
         <v>94</v>
       </c>
       <c r="H35" t="n">
-        <v>0.754497335294118</v>
+        <v>0.771046188235294</v>
       </c>
       <c r="I35" t="n">
-        <v>0.76266485</v>
+        <v>0.7738343</v>
       </c>
       <c r="J35" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="K35" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L35" t="n">
-        <v>0.820953117647059</v>
+        <v>0.839808676470588</v>
       </c>
       <c r="M35" t="n">
-        <v>0.85764405</v>
+        <v>0.8886786</v>
       </c>
       <c r="N35" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
-        <v>0.845590235294118</v>
+        <v>0.862539852941177</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.88839885</v>
+        <v>0.9190427</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="T35" t="n">
-        <v>0.658820176470588</v>
+        <v>0.721795029411765</v>
       </c>
       <c r="U35" t="n">
-        <v>0.67000645</v>
+        <v>0.7597718</v>
       </c>
       <c r="V35" t="n">
         <v>43</v>
       </c>
       <c r="W35" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X35" t="n">
-        <v>0.370722528235294</v>
+        <v>0.498888621176471</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.395916</v>
+        <v>0.5766395</v>
       </c>
       <c r="Z35" t="n">
         <v>43</v>
       </c>
       <c r="AA35" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="n">
-        <v>36.6</v>
+        <v>22.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>50.6</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="36">
@@ -3985,70 +3985,70 @@
         <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>0.758042841176471</v>
+        <v>0.770666588235294</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7671612</v>
+        <v>0.7815789</v>
       </c>
       <c r="J36" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K36" t="n">
+        <v>38</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8232298</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8650182</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" t="n">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.838171523529412</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.8862158</v>
+      </c>
+      <c r="R36" t="n">
         <v>51</v>
       </c>
-      <c r="L36" t="n">
-        <v>0.809580823529412</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.8498186</v>
-      </c>
-      <c r="N36" t="n">
-        <v>61</v>
-      </c>
-      <c r="O36" t="n">
-        <v>65</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.827948452941176</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.8748063</v>
-      </c>
-      <c r="R36" t="n">
-        <v>67</v>
-      </c>
       <c r="S36" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T36" t="n">
-        <v>0.584378576470588</v>
+        <v>0.589258664705882</v>
       </c>
       <c r="U36" t="n">
         <v>0.5</v>
       </c>
       <c r="V36" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="W36" t="n">
         <v>77</v>
       </c>
       <c r="X36" t="n">
-        <v>0.210771641176471</v>
+        <v>0.214199064705882</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="n">
         <v>77</v>
       </c>
       <c r="AB36" t="n">
-        <v>69</v>
+        <v>48.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>68.4</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="37">
@@ -4074,70 +4074,70 @@
         <v>94</v>
       </c>
       <c r="H37" t="n">
-        <v>0.767672229411765</v>
+        <v>0.769569876470588</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7747213</v>
+        <v>0.7875537</v>
       </c>
       <c r="J37" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L37" t="n">
-        <v>0.821479323529412</v>
+        <v>0.824960029411765</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8662404</v>
+        <v>0.8737274</v>
       </c>
       <c r="N37" t="n">
+        <v>20</v>
+      </c>
+      <c r="O37" t="n">
         <v>24</v>
       </c>
-      <c r="O37" t="n">
-        <v>42</v>
-      </c>
       <c r="P37" t="n">
-        <v>0.842619217647059</v>
+        <v>0.847234717647059</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8972642</v>
+        <v>0.9045157</v>
       </c>
       <c r="R37" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S37" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T37" t="n">
-        <v>0.587567435294118</v>
+        <v>0.592645658823529</v>
       </c>
       <c r="U37" t="n">
         <v>0.5</v>
       </c>
       <c r="V37" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W37" t="n">
         <v>78</v>
       </c>
       <c r="X37" t="n">
-        <v>0.219665664705882</v>
+        <v>0.226752517647059</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA37" t="n">
         <v>78</v>
       </c>
       <c r="AB37" t="n">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>53.4</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="38">
@@ -4163,46 +4163,46 @@
         <v>99</v>
       </c>
       <c r="H38" t="n">
-        <v>0.754433394117647</v>
+        <v>0.770178882352941</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7624639</v>
+        <v>0.7685174</v>
       </c>
       <c r="J38" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="K38" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L38" t="n">
-        <v>0.820960311764706</v>
+        <v>0.839500094117647</v>
       </c>
       <c r="M38" t="n">
-        <v>0.85760125</v>
+        <v>0.8889932</v>
       </c>
       <c r="N38" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0.845602817647059</v>
+        <v>0.862398535294118</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.88837775</v>
+        <v>0.9196594</v>
       </c>
       <c r="R38" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0.658826105882353</v>
+        <v>0.722419576470588</v>
       </c>
       <c r="U38" t="n">
-        <v>0.6700094</v>
+        <v>0.766069</v>
       </c>
       <c r="V38" t="n">
         <v>42</v>
@@ -4211,22 +4211,22 @@
         <v>42</v>
       </c>
       <c r="X38" t="n">
-        <v>0.370730951764706</v>
+        <v>0.500566274117647</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.39592025</v>
+        <v>0.5766395</v>
       </c>
       <c r="Z38" t="n">
         <v>42</v>
       </c>
       <c r="AA38" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB38" t="n">
-        <v>36.2</v>
+        <v>24</v>
       </c>
       <c r="AC38" t="n">
-        <v>50.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="39">
@@ -4252,70 +4252,70 @@
         <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>0.757871852941176</v>
+        <v>0.770234664705882</v>
       </c>
       <c r="I39" t="n">
-        <v>0.76707575</v>
+        <v>0.7815887</v>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K39" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="L39" t="n">
-        <v>0.809483776470588</v>
+        <v>0.822497158823529</v>
       </c>
       <c r="M39" t="n">
-        <v>0.84980355</v>
+        <v>0.8651082</v>
       </c>
       <c r="N39" t="n">
+        <v>33</v>
+      </c>
+      <c r="O39" t="n">
         <v>62</v>
       </c>
-      <c r="O39" t="n">
-        <v>66</v>
-      </c>
       <c r="P39" t="n">
-        <v>0.827821911764706</v>
+        <v>0.837207029411765</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8747841</v>
+        <v>0.8863093</v>
       </c>
       <c r="R39" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S39" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T39" t="n">
-        <v>0.584270711764706</v>
+        <v>0.589144447058824</v>
       </c>
       <c r="U39" t="n">
         <v>0.5</v>
       </c>
       <c r="V39" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="W39" t="n">
         <v>79</v>
       </c>
       <c r="X39" t="n">
-        <v>0.210600258823529</v>
+        <v>0.213965923529412</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="n">
         <v>79</v>
       </c>
       <c r="AB39" t="n">
-        <v>70</v>
+        <v>52.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>70</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="40">
@@ -4341,70 +4341,70 @@
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>0.766520488235294</v>
+        <v>0.773814529411765</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7737478</v>
+        <v>0.7877787</v>
       </c>
       <c r="J40" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L40" t="n">
-        <v>0.820821741176471</v>
+        <v>0.832360288235294</v>
       </c>
       <c r="M40" t="n">
-        <v>0.86526085</v>
+        <v>0.8724207</v>
       </c>
       <c r="N40" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P40" t="n">
-        <v>0.841492688235294</v>
+        <v>0.852127735294118</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.89548685</v>
+        <v>0.901429</v>
       </c>
       <c r="R40" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S40" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="T40" t="n">
-        <v>0.587683123529412</v>
+        <v>0.5925493</v>
       </c>
       <c r="U40" t="n">
         <v>0.5</v>
       </c>
       <c r="V40" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W40" t="n">
         <v>80</v>
       </c>
       <c r="X40" t="n">
-        <v>0.219709541176471</v>
+        <v>0.226563417647059</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA40" t="n">
         <v>80</v>
       </c>
       <c r="AB40" t="n">
-        <v>41.8</v>
+        <v>28.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>59</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="41">
@@ -4430,70 +4430,70 @@
         <v>104</v>
       </c>
       <c r="H41" t="n">
-        <v>0.754061023529412</v>
+        <v>0.771293535294118</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7610689</v>
+        <v>0.7657043</v>
       </c>
       <c r="J41" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="K41" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L41" t="n">
-        <v>0.820845894117647</v>
+        <v>0.839276223529412</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8573426</v>
+        <v>0.8885362</v>
       </c>
       <c r="N41" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>0.845574711764706</v>
+        <v>0.862789794117647</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.88823745</v>
+        <v>0.9194371</v>
       </c>
       <c r="R41" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>0.659053282352941</v>
+        <v>0.724273517647059</v>
       </c>
       <c r="U41" t="n">
-        <v>0.670123</v>
+        <v>0.7665881</v>
       </c>
       <c r="V41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X41" t="n">
-        <v>0.372210069411765</v>
+        <v>0.505125256470588</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4021297</v>
+        <v>0.5942398</v>
       </c>
       <c r="Z41" t="n">
         <v>41</v>
       </c>
       <c r="AA41" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="n">
-        <v>36.8</v>
+        <v>21.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>51.8</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="42">
@@ -4519,70 +4519,70 @@
         <v>104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.757563605882353</v>
+        <v>0.772374205882353</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7670882</v>
+        <v>0.7815887</v>
       </c>
       <c r="J42" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L42" t="n">
-        <v>0.809424805882353</v>
+        <v>0.824155194117647</v>
       </c>
       <c r="M42" t="n">
-        <v>0.84985505</v>
+        <v>0.8651082</v>
       </c>
       <c r="N42" t="n">
+        <v>23</v>
+      </c>
+      <c r="O42" t="n">
         <v>63</v>
       </c>
-      <c r="O42" t="n">
-        <v>64</v>
-      </c>
       <c r="P42" t="n">
-        <v>0.827786035294118</v>
+        <v>0.839034029411765</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.87480835</v>
+        <v>0.8863</v>
       </c>
       <c r="R42" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="S42" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T42" t="n">
-        <v>0.584231676470588</v>
+        <v>0.589187164705882</v>
       </c>
       <c r="U42" t="n">
         <v>0.5</v>
       </c>
       <c r="V42" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="W42" t="n">
         <v>81</v>
       </c>
       <c r="X42" t="n">
-        <v>0.210528552941176</v>
+        <v>0.213683741176471</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="n">
         <v>81</v>
       </c>
       <c r="AB42" t="n">
-        <v>71</v>
+        <v>44.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>69.8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -4608,70 +4608,70 @@
         <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.765726835294118</v>
+        <v>0.7735562</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7744596</v>
+        <v>0.7871423</v>
       </c>
       <c r="J43" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L43" t="n">
-        <v>0.820681</v>
+        <v>0.832378741176471</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8658448</v>
+        <v>0.8729558</v>
       </c>
       <c r="N43" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="O43" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="P43" t="n">
-        <v>0.841256341176471</v>
+        <v>0.8524126</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8964901</v>
+        <v>0.9015377</v>
       </c>
       <c r="R43" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S43" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T43" t="n">
-        <v>0.587597441176471</v>
+        <v>0.592888405882353</v>
       </c>
       <c r="U43" t="n">
         <v>0.5</v>
       </c>
       <c r="V43" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W43" t="n">
         <v>82</v>
       </c>
       <c r="X43" t="n">
-        <v>0.219568411764706</v>
+        <v>0.226784311764706</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AA43" t="n">
         <v>82</v>
       </c>
       <c r="AB43" t="n">
-        <v>45.4</v>
+        <v>27.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>58.2</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="44">
@@ -4697,70 +4697,70 @@
         <v>109</v>
       </c>
       <c r="H44" t="n">
-        <v>0.746351270588235</v>
+        <v>0.769801541176471</v>
       </c>
       <c r="I44" t="n">
-        <v>0.75421645</v>
+        <v>0.7644415</v>
       </c>
       <c r="J44" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K44" t="n">
         <v>71</v>
       </c>
       <c r="L44" t="n">
-        <v>0.810179217647059</v>
+        <v>0.838937558823529</v>
       </c>
       <c r="M44" t="n">
-        <v>0.84559855</v>
+        <v>0.8885822</v>
       </c>
       <c r="N44" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>0.833775435294118</v>
+        <v>0.862633664705882</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.87863025</v>
+        <v>0.9194607</v>
       </c>
       <c r="R44" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>0.675687829411765</v>
+        <v>0.724262417647059</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7021261</v>
+        <v>0.7665881</v>
       </c>
       <c r="V44" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W44" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X44" t="n">
-        <v>0.413717115294118</v>
+        <v>0.507818103529412</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.49146565</v>
+        <v>0.5942398</v>
       </c>
       <c r="Z44" t="n">
         <v>40</v>
       </c>
       <c r="AA44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="n">
-        <v>52.6</v>
+        <v>23.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>56</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="45">
@@ -4786,55 +4786,55 @@
         <v>109</v>
       </c>
       <c r="H45" t="n">
-        <v>0.752279747058824</v>
+        <v>0.772124947058824</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7609037</v>
+        <v>0.7815887</v>
       </c>
       <c r="J45" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K45" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L45" t="n">
-        <v>0.806641947058824</v>
+        <v>0.823633841176471</v>
       </c>
       <c r="M45" t="n">
-        <v>0.83637675</v>
+        <v>0.8651082</v>
       </c>
       <c r="N45" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="O45" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
-        <v>0.825408435294118</v>
+        <v>0.838356205882353</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.86218425</v>
+        <v>0.8863</v>
       </c>
       <c r="R45" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S45" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="T45" t="n">
-        <v>0.570177864705882</v>
+        <v>0.588667729411765</v>
       </c>
       <c r="U45" t="n">
         <v>0.5</v>
       </c>
       <c r="V45" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="W45" t="n">
         <v>83</v>
       </c>
       <c r="X45" t="n">
-        <v>0.167647794117647</v>
+        <v>0.212787958823529</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>83</v>
       </c>
       <c r="AB45" t="n">
-        <v>74.6</v>
+        <v>48.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>77.8</v>
+        <v>67.4</v>
       </c>
     </row>
     <row r="46">
@@ -4875,70 +4875,70 @@
         <v>109</v>
       </c>
       <c r="H46" t="n">
-        <v>0.765878888235294</v>
+        <v>0.774398294117647</v>
       </c>
       <c r="I46" t="n">
-        <v>0.774734</v>
+        <v>0.7842518</v>
       </c>
       <c r="J46" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
+        <v>32</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.831659058823529</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.872393</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15</v>
+      </c>
+      <c r="O46" t="n">
+        <v>32</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.851320052941177</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.9007517</v>
+      </c>
+      <c r="R46" t="n">
+        <v>15</v>
+      </c>
+      <c r="S46" t="n">
         <v>37</v>
       </c>
-      <c r="L46" t="n">
-        <v>0.821001576470588</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.86681375</v>
-      </c>
-      <c r="N46" t="n">
-        <v>28</v>
-      </c>
-      <c r="O46" t="n">
-        <v>36</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.841740935294118</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.8980723</v>
-      </c>
-      <c r="R46" t="n">
-        <v>35</v>
-      </c>
-      <c r="S46" t="n">
-        <v>25</v>
-      </c>
       <c r="T46" t="n">
-        <v>0.587664205882353</v>
+        <v>0.592453364705882</v>
       </c>
       <c r="U46" t="n">
         <v>0.5</v>
       </c>
       <c r="V46" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W46" t="n">
         <v>84</v>
       </c>
       <c r="X46" t="n">
-        <v>0.221134576470588</v>
+        <v>0.226378617647059</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AA46" t="n">
         <v>84</v>
       </c>
       <c r="AB46" t="n">
-        <v>40.2</v>
+        <v>30</v>
       </c>
       <c r="AC46" t="n">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="47">
@@ -4964,58 +4964,58 @@
         <v>114</v>
       </c>
       <c r="H47" t="n">
-        <v>0.742868976470588</v>
+        <v>0.769675029411765</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7524753</v>
+        <v>0.7646407</v>
       </c>
       <c r="J47" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="K47" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L47" t="n">
-        <v>0.805841629411765</v>
+        <v>0.839004652941176</v>
       </c>
       <c r="M47" t="n">
-        <v>0.84303405</v>
+        <v>0.8886162</v>
       </c>
       <c r="N47" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>0.830203335294118</v>
+        <v>0.862678847058824</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8765249</v>
+        <v>0.9194731</v>
       </c>
       <c r="R47" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>0.675565552941176</v>
+        <v>0.725213435294118</v>
       </c>
       <c r="U47" t="n">
-        <v>0.70353735</v>
+        <v>0.7671063</v>
       </c>
       <c r="V47" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W47" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X47" t="n">
-        <v>0.414889571764706</v>
+        <v>0.509609503529412</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.49446605</v>
+        <v>0.5942398</v>
       </c>
       <c r="Z47" t="n">
         <v>39</v>
@@ -5024,10 +5024,10 @@
         <v>39</v>
       </c>
       <c r="AB47" t="n">
-        <v>55.8</v>
+        <v>23.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>56.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -5053,55 +5053,55 @@
         <v>114</v>
       </c>
       <c r="H48" t="n">
-        <v>0.748720252941177</v>
+        <v>0.771845005882353</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7575201</v>
+        <v>0.7815887</v>
       </c>
       <c r="J48" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="K48" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="L48" t="n">
-        <v>0.800882835294118</v>
+        <v>0.821457217647059</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8338875</v>
+        <v>0.8651082</v>
       </c>
       <c r="N48" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="O48" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
-        <v>0.817206170588235</v>
+        <v>0.835785923529412</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8602715</v>
+        <v>0.8862733</v>
       </c>
       <c r="R48" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="S48" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T48" t="n">
-        <v>0.569706488235294</v>
+        <v>0.588667729411765</v>
       </c>
       <c r="U48" t="n">
         <v>0.5</v>
       </c>
       <c r="V48" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="W48" t="n">
         <v>85</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1668741</v>
+        <v>0.212787958823529</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -5113,10 +5113,10 @@
         <v>85</v>
       </c>
       <c r="AB48" t="n">
-        <v>78.2</v>
+        <v>56</v>
       </c>
       <c r="AC48" t="n">
-        <v>80.4</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="49">
@@ -5142,70 +5142,70 @@
         <v>114</v>
       </c>
       <c r="H49" t="n">
-        <v>0.765327082352941</v>
+        <v>0.773516005882353</v>
       </c>
       <c r="I49" t="n">
-        <v>0.77845355</v>
+        <v>0.7776331</v>
       </c>
       <c r="J49" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L49" t="n">
-        <v>0.820532411764706</v>
+        <v>0.831528241176471</v>
       </c>
       <c r="M49" t="n">
-        <v>0.86826145</v>
+        <v>0.8738082</v>
       </c>
       <c r="N49" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O49" t="n">
         <v>23</v>
       </c>
       <c r="P49" t="n">
-        <v>0.841753358823529</v>
+        <v>0.851030417647059</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.89957255</v>
+        <v>0.9023863</v>
       </c>
       <c r="R49" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="S49" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="T49" t="n">
-        <v>0.586114370588235</v>
+        <v>0.592409235294118</v>
       </c>
       <c r="U49" t="n">
         <v>0.5</v>
       </c>
       <c r="V49" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W49" t="n">
         <v>86</v>
       </c>
       <c r="X49" t="n">
-        <v>0.219141476470588</v>
+        <v>0.226428170588235</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AA49" t="n">
         <v>86</v>
       </c>
       <c r="AB49" t="n">
-        <v>49.2</v>
+        <v>31.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>48</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="50">
@@ -5231,46 +5231,46 @@
         <v>119</v>
       </c>
       <c r="H50" t="n">
-        <v>0.740686147058824</v>
+        <v>0.767860823529412</v>
       </c>
       <c r="I50" t="n">
-        <v>0.75138385</v>
+        <v>0.7636395</v>
       </c>
       <c r="J50" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K50" t="n">
         <v>73</v>
       </c>
       <c r="L50" t="n">
-        <v>0.804437352941176</v>
+        <v>0.837864088235294</v>
       </c>
       <c r="M50" t="n">
-        <v>0.84283445</v>
+        <v>0.8884302</v>
       </c>
       <c r="N50" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="P50" t="n">
-        <v>0.829325994117647</v>
+        <v>0.861612647058824</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8763717</v>
+        <v>0.9193776</v>
       </c>
       <c r="R50" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="S50" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="T50" t="n">
-        <v>0.690852623529412</v>
+        <v>0.725998305882353</v>
       </c>
       <c r="U50" t="n">
-        <v>0.72912765</v>
+        <v>0.7671063</v>
       </c>
       <c r="V50" t="n">
         <v>38</v>
@@ -5279,22 +5279,22 @@
         <v>38</v>
       </c>
       <c r="X50" t="n">
-        <v>0.446179151764706</v>
+        <v>0.512495556470588</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.4950617</v>
+        <v>0.5942398</v>
       </c>
       <c r="Z50" t="n">
         <v>38</v>
       </c>
       <c r="AA50" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="n">
-        <v>56.4</v>
+        <v>26.2</v>
       </c>
       <c r="AC50" t="n">
-        <v>56.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -5320,55 +5320,55 @@
         <v>119</v>
       </c>
       <c r="H51" t="n">
-        <v>0.748085470588235</v>
+        <v>0.771872135294118</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7571145</v>
+        <v>0.7783855</v>
       </c>
       <c r="J51" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="K51" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="L51" t="n">
-        <v>0.800413929411765</v>
+        <v>0.821573188235294</v>
       </c>
       <c r="M51" t="n">
-        <v>0.83373615</v>
+        <v>0.8644511</v>
       </c>
       <c r="N51" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O51" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
-        <v>0.816635482352941</v>
+        <v>0.835960882352941</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.8599249</v>
+        <v>0.8859204</v>
       </c>
       <c r="R51" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="S51" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="T51" t="n">
-        <v>0.568586358823529</v>
+        <v>0.588716170588235</v>
       </c>
       <c r="U51" t="n">
         <v>0.5</v>
       </c>
       <c r="V51" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="W51" t="n">
         <v>87</v>
       </c>
       <c r="X51" t="n">
-        <v>0.164182023529412</v>
+        <v>0.212675258823529</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>87</v>
       </c>
       <c r="AB51" t="n">
-        <v>79.2</v>
+        <v>54.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>81.8</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="52">
@@ -5409,70 +5409,70 @@
         <v>119</v>
       </c>
       <c r="H52" t="n">
-        <v>0.769406647058824</v>
+        <v>0.773717182352941</v>
       </c>
       <c r="I52" t="n">
-        <v>0.77760795</v>
+        <v>0.782191</v>
       </c>
       <c r="J52" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L52" t="n">
-        <v>0.823999888235294</v>
+        <v>0.831695676470588</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8694558</v>
+        <v>0.8724891</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O52" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P52" t="n">
-        <v>0.843710982352941</v>
+        <v>0.851596523529412</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.89987065</v>
+        <v>0.9018536</v>
       </c>
       <c r="R52" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S52" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="T52" t="n">
-        <v>0.585914152941176</v>
+        <v>0.592648494117647</v>
       </c>
       <c r="U52" t="n">
         <v>0.5</v>
       </c>
       <c r="V52" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="W52" t="n">
         <v>88</v>
       </c>
       <c r="X52" t="n">
-        <v>0.218876741176471</v>
+        <v>0.2265154</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AA52" t="n">
         <v>88</v>
       </c>
       <c r="AB52" t="n">
-        <v>36.8</v>
+        <v>29</v>
       </c>
       <c r="AC52" t="n">
-        <v>48</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="53">
@@ -5498,70 +5498,70 @@
         <v>124</v>
       </c>
       <c r="H53" t="n">
-        <v>0.730505752941176</v>
+        <v>0.767827147058823</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7432755</v>
+        <v>0.7637522</v>
       </c>
       <c r="J53" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K53" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L53" t="n">
-        <v>0.795829141176471</v>
+        <v>0.837857070588235</v>
       </c>
       <c r="M53" t="n">
-        <v>0.835357</v>
+        <v>0.8885012</v>
       </c>
       <c r="N53" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="P53" t="n">
-        <v>0.823087088235294</v>
+        <v>0.861612317647059</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.87103745</v>
+        <v>0.9194489</v>
       </c>
       <c r="R53" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="S53" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="T53" t="n">
-        <v>0.694595405882353</v>
+        <v>0.7260171</v>
       </c>
       <c r="U53" t="n">
-        <v>0.7314447</v>
+        <v>0.7671063</v>
       </c>
       <c r="V53" t="n">
         <v>37</v>
       </c>
       <c r="W53" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X53" t="n">
-        <v>0.455753437647059</v>
+        <v>0.512531674117647</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.49977595</v>
+        <v>0.5942398</v>
       </c>
       <c r="Z53" t="n">
         <v>37</v>
       </c>
       <c r="AA53" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB53" t="n">
-        <v>60.2</v>
+        <v>26.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>60</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="54">
@@ -5587,55 +5587,55 @@
         <v>124</v>
       </c>
       <c r="H54" t="n">
-        <v>0.749022964705882</v>
+        <v>0.771862511764706</v>
       </c>
       <c r="I54" t="n">
-        <v>0.75583495</v>
+        <v>0.7783855</v>
       </c>
       <c r="J54" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L54" t="n">
-        <v>0.800368988235294</v>
+        <v>0.820644129411765</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8310071</v>
+        <v>0.8644561</v>
       </c>
       <c r="N54" t="n">
+        <v>44</v>
+      </c>
+      <c r="O54" t="n">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.834872711764706</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.885923</v>
+      </c>
+      <c r="R54" t="n">
         <v>75</v>
       </c>
-      <c r="O54" t="n">
-        <v>81</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.816365147058824</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.85658115</v>
-      </c>
-      <c r="R54" t="n">
-        <v>81</v>
-      </c>
       <c r="S54" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="T54" t="n">
-        <v>0.568271705882353</v>
+        <v>0.588699764705882</v>
       </c>
       <c r="U54" t="n">
         <v>0.5</v>
       </c>
       <c r="V54" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W54" t="n">
         <v>89</v>
       </c>
       <c r="X54" t="n">
-        <v>0.163487141176471</v>
+        <v>0.212640158823529</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -5647,10 +5647,10 @@
         <v>89</v>
       </c>
       <c r="AB54" t="n">
-        <v>79.6</v>
+        <v>58.2</v>
       </c>
       <c r="AC54" t="n">
-        <v>83.8</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="55">
@@ -5676,70 +5676,70 @@
         <v>124</v>
       </c>
       <c r="H55" t="n">
-        <v>0.768839917647059</v>
+        <v>0.773341552941176</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7773399</v>
+        <v>0.7747205</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L55" t="n">
-        <v>0.823967429411765</v>
+        <v>0.830796870588235</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8699223</v>
+        <v>0.8730588</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O55" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P55" t="n">
-        <v>0.844028864705882</v>
+        <v>0.850255982352941</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8999651</v>
+        <v>0.9012997</v>
       </c>
       <c r="R55" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S55" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T55" t="n">
-        <v>0.585654470588235</v>
+        <v>0.592430682352941</v>
       </c>
       <c r="U55" t="n">
         <v>0.5</v>
       </c>
       <c r="V55" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="W55" t="n">
         <v>90</v>
       </c>
       <c r="X55" t="n">
-        <v>0.218863317647059</v>
+        <v>0.226342564705882</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AA55" t="n">
         <v>90</v>
       </c>
       <c r="AB55" t="n">
-        <v>36.8</v>
+        <v>32.2</v>
       </c>
       <c r="AC55" t="n">
-        <v>48.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -5765,70 +5765,70 @@
         <v>35</v>
       </c>
       <c r="H56" t="n">
-        <v>0.767050570588235</v>
+        <v>0.767073511764706</v>
       </c>
       <c r="I56" t="n">
-        <v>0.78136685</v>
+        <v>0.7930825</v>
       </c>
       <c r="J56" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K56" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>0.819738223529412</v>
+        <v>0.820277241176471</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8668221</v>
+        <v>0.8681926</v>
       </c>
       <c r="N56" t="n">
+        <v>47</v>
+      </c>
+      <c r="O56" t="n">
         <v>45</v>
       </c>
-      <c r="O56" t="n">
-        <v>35</v>
-      </c>
       <c r="P56" t="n">
-        <v>0.840940429411765</v>
+        <v>0.840920141176471</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.89446475</v>
+        <v>0.8962827</v>
       </c>
       <c r="R56" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S56" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T56" t="n">
-        <v>0.777839088235294</v>
+        <v>0.777367558823529</v>
       </c>
       <c r="U56" t="n">
-        <v>0.80263265</v>
+        <v>0.8166195</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>0.679733691176471</v>
+        <v>0.678495405294118</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.78105185</v>
+        <v>0.8246554</v>
       </c>
       <c r="Z56" t="n">
         <v>35</v>
       </c>
       <c r="AA56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB56" t="n">
-        <v>29.8</v>
+        <v>35.2</v>
       </c>
       <c r="AC56" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="57">
@@ -5854,58 +5854,58 @@
         <v>44</v>
       </c>
       <c r="H57" t="n">
-        <v>0.767260176470588</v>
+        <v>0.765678105882353</v>
       </c>
       <c r="I57" t="n">
-        <v>0.78524885</v>
+        <v>0.792052</v>
       </c>
       <c r="J57" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>0.820531241176471</v>
+        <v>0.819057652941176</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8703978</v>
+        <v>0.8682066</v>
       </c>
       <c r="N57" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O57" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P57" t="n">
-        <v>0.841485347058823</v>
+        <v>0.839606852941176</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.89667175</v>
+        <v>0.8948982</v>
       </c>
       <c r="R57" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S57" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="T57" t="n">
-        <v>0.772688582352941</v>
+        <v>0.772901505882353</v>
       </c>
       <c r="U57" t="n">
-        <v>0.7878436</v>
+        <v>0.7824542</v>
       </c>
       <c r="V57" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="W57" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="X57" t="n">
-        <v>0.692725534705882</v>
+        <v>0.695902310588235</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.7918597</v>
+        <v>0.8563824</v>
       </c>
       <c r="Z57" t="n">
         <v>33</v>
@@ -5914,10 +5914,10 @@
         <v>34</v>
       </c>
       <c r="AB57" t="n">
-        <v>32.6</v>
+        <v>41.2</v>
       </c>
       <c r="AC57" t="n">
-        <v>20</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="58">
@@ -5943,70 +5943,70 @@
         <v>49</v>
       </c>
       <c r="H58" t="n">
-        <v>0.765740641176471</v>
+        <v>0.7651694</v>
       </c>
       <c r="I58" t="n">
-        <v>0.78501225</v>
+        <v>0.8002026</v>
       </c>
       <c r="J58" t="n">
+        <v>46</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.818724641176471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8688846</v>
+      </c>
+      <c r="N58" t="n">
+        <v>54</v>
+      </c>
+      <c r="O58" t="n">
+        <v>39</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.838860064705882</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.89695</v>
+      </c>
+      <c r="R58" t="n">
+        <v>46</v>
+      </c>
+      <c r="S58" t="n">
+        <v>48</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.772157017647059</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.7860856</v>
+      </c>
+      <c r="V58" t="n">
+        <v>35</v>
+      </c>
+      <c r="W58" t="n">
         <v>29</v>
       </c>
-      <c r="K58" t="n">
-        <v>9</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.819399447058824</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8679548</v>
-      </c>
-      <c r="N58" t="n">
-        <v>48</v>
-      </c>
-      <c r="O58" t="n">
-        <v>26</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.840501594117647</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.89701595</v>
-      </c>
-      <c r="R58" t="n">
-        <v>45</v>
-      </c>
-      <c r="S58" t="n">
-        <v>32</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.7718534</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.78315975</v>
-      </c>
-      <c r="V58" t="n">
-        <v>29</v>
-      </c>
-      <c r="W58" t="n">
-        <v>26</v>
-      </c>
       <c r="X58" t="n">
-        <v>0.700560595294118</v>
+        <v>0.702604327647059</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.80785945</v>
+        <v>0.8787415</v>
       </c>
       <c r="Z58" t="n">
         <v>31</v>
       </c>
       <c r="AA58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB58" t="n">
-        <v>36.4</v>
+        <v>42.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>25</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="59">
@@ -6032,70 +6032,70 @@
         <v>54</v>
       </c>
       <c r="H59" t="n">
-        <v>0.762363617647059</v>
+        <v>0.762166482352941</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7855493</v>
+        <v>0.7980491</v>
       </c>
       <c r="J59" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K59" t="n">
         <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>0.817278935294118</v>
+        <v>0.817161658823529</v>
       </c>
       <c r="M59" t="n">
-        <v>0.86642475</v>
+        <v>0.8667047</v>
       </c>
       <c r="N59" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O59" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="P59" t="n">
-        <v>0.838073935294118</v>
+        <v>0.837943870588235</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.8960457</v>
+        <v>0.8961679</v>
       </c>
       <c r="R59" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S59" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="T59" t="n">
-        <v>0.773632941176471</v>
+        <v>0.773595541176471</v>
       </c>
       <c r="U59" t="n">
-        <v>0.78197345</v>
+        <v>0.7827955</v>
       </c>
       <c r="V59" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="W59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X59" t="n">
-        <v>0.709520432941177</v>
+        <v>0.709449611176471</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.8096352</v>
+        <v>0.8780762</v>
       </c>
       <c r="Z59" t="n">
         <v>29</v>
       </c>
       <c r="AA59" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB59" t="n">
-        <v>38.4</v>
+        <v>45.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>30</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="60">
@@ -6121,70 +6121,70 @@
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>0.760853447058824</v>
+        <v>0.760672747058823</v>
       </c>
       <c r="I60" t="n">
-        <v>0.78136165</v>
+        <v>0.791473</v>
       </c>
       <c r="J60" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L60" t="n">
-        <v>0.815924111764706</v>
+        <v>0.815796029411765</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8676929</v>
+        <v>0.8670837</v>
       </c>
       <c r="N60" t="n">
+        <v>65</v>
+      </c>
+      <c r="O60" t="n">
         <v>53</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
+        <v>0.837127494117647</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.8978677</v>
+      </c>
+      <c r="R60" t="n">
+        <v>61</v>
+      </c>
+      <c r="S60" t="n">
+        <v>43</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.775805835294118</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.7841803</v>
+      </c>
+      <c r="V60" t="n">
         <v>27</v>
       </c>
-      <c r="P60" t="n">
-        <v>0.8372556</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.8973464</v>
-      </c>
-      <c r="R60" t="n">
-        <v>53</v>
-      </c>
-      <c r="S60" t="n">
-        <v>30</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.775843147058824</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0.78409635</v>
-      </c>
-      <c r="V60" t="n">
-        <v>8</v>
-      </c>
       <c r="W60" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="X60" t="n">
-        <v>0.715939559411765</v>
+        <v>0.715866651176471</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.8152387</v>
+        <v>0.8891052</v>
       </c>
       <c r="Z60" t="n">
         <v>26</v>
       </c>
       <c r="AA60" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB60" t="n">
-        <v>36.2</v>
+        <v>47.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>24.8</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="61">
@@ -6210,70 +6210,70 @@
         <v>64</v>
       </c>
       <c r="H61" t="n">
-        <v>0.759050105882353</v>
+        <v>0.758874664705882</v>
       </c>
       <c r="I61" t="n">
-        <v>0.76504815</v>
+        <v>0.7710462</v>
       </c>
       <c r="J61" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K61" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>0.813653747058824</v>
+        <v>0.813523247058824</v>
       </c>
       <c r="M61" t="n">
-        <v>0.86820255</v>
+        <v>0.8680619</v>
       </c>
       <c r="N61" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="P61" t="n">
-        <v>0.835805405882353</v>
+        <v>0.835664535294118</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.897665</v>
+        <v>0.8985422</v>
       </c>
       <c r="R61" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="S61" t="n">
+        <v>40</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.775581494117647</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.7825674</v>
+      </c>
+      <c r="V61" t="n">
         <v>28</v>
       </c>
-      <c r="T61" t="n">
-        <v>0.775619411764706</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.78170005</v>
-      </c>
-      <c r="V61" t="n">
-        <v>9</v>
-      </c>
       <c r="W61" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X61" t="n">
-        <v>0.717798969411765</v>
+        <v>0.717724241176471</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.8146199</v>
+        <v>0.8886554</v>
       </c>
       <c r="Z61" t="n">
         <v>24</v>
       </c>
       <c r="AA61" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB61" t="n">
-        <v>37.8</v>
+        <v>51.2</v>
       </c>
       <c r="AC61" t="n">
-        <v>33</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="62">
@@ -6299,70 +6299,70 @@
         <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>0.753794805882353</v>
+        <v>0.753244941176471</v>
       </c>
       <c r="I62" t="n">
-        <v>0.76291025</v>
+        <v>0.7690878</v>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K62" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8122764</v>
+        <v>0.811616588235294</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8653069</v>
+        <v>0.8676096</v>
       </c>
       <c r="N62" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O62" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P62" t="n">
-        <v>0.835037958823529</v>
+        <v>0.834565541176471</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.89654245</v>
+        <v>0.8974366</v>
       </c>
       <c r="R62" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="S62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T62" t="n">
-        <v>0.776083629411765</v>
+        <v>0.776334523529412</v>
       </c>
       <c r="U62" t="n">
-        <v>0.7831181</v>
+        <v>0.7892359</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="W62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X62" t="n">
-        <v>0.72098277</v>
+        <v>0.720812644117647</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.81626005</v>
+        <v>0.8882053</v>
       </c>
       <c r="Z62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA62" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB62" t="n">
-        <v>39.8</v>
+        <v>52.6</v>
       </c>
       <c r="AC62" t="n">
-        <v>39</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="63">
@@ -6388,70 +6388,70 @@
         <v>74</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7476361</v>
+        <v>0.7515285</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7630921</v>
+        <v>0.7718904</v>
       </c>
       <c r="J63" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L63" t="n">
-        <v>0.809781070588235</v>
+        <v>0.814287723529412</v>
       </c>
       <c r="M63" t="n">
-        <v>0.86599965</v>
+        <v>0.8713676</v>
       </c>
       <c r="N63" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O63" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P63" t="n">
-        <v>0.832709652941176</v>
+        <v>0.8377376</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.8969414</v>
+        <v>0.9009932</v>
       </c>
       <c r="R63" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T63" t="n">
-        <v>0.774872276470588</v>
+        <v>0.780152041176471</v>
       </c>
       <c r="U63" t="n">
-        <v>0.78361775</v>
+        <v>0.8136275</v>
       </c>
       <c r="V63" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="X63" t="n">
-        <v>0.724658590588235</v>
+        <v>0.737970155882353</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.8162728</v>
+        <v>0.9083843</v>
       </c>
       <c r="Z63" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA63" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AB63" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="AC63" t="n">
-        <v>35.8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="64">
@@ -6477,70 +6477,70 @@
         <v>79</v>
       </c>
       <c r="H64" t="n">
-        <v>0.744564988235294</v>
+        <v>0.748187682352941</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7632101</v>
+        <v>0.7740613</v>
       </c>
       <c r="J64" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K64" t="n">
         <v>58</v>
       </c>
       <c r="L64" t="n">
-        <v>0.808030035294118</v>
+        <v>0.814610758823529</v>
       </c>
       <c r="M64" t="n">
-        <v>0.86508135</v>
+        <v>0.8673047</v>
       </c>
       <c r="N64" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O64" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P64" t="n">
-        <v>0.831031541176471</v>
+        <v>0.839686994117647</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8978636</v>
+        <v>0.9036771</v>
       </c>
       <c r="R64" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="S64" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T64" t="n">
-        <v>0.775514511764706</v>
+        <v>0.779958264705882</v>
       </c>
       <c r="U64" t="n">
-        <v>0.78364995</v>
+        <v>0.8122314</v>
       </c>
       <c r="V64" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W64" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="X64" t="n">
-        <v>0.726987427058824</v>
+        <v>0.739977271176471</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.8159425</v>
+        <v>0.9083843</v>
       </c>
       <c r="Z64" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AA64" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AB64" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AC64" t="n">
-        <v>35.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -6566,70 +6566,70 @@
         <v>84</v>
       </c>
       <c r="H65" t="n">
-        <v>0.739916317647059</v>
+        <v>0.741713541176471</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7603216</v>
+        <v>0.7631721</v>
       </c>
       <c r="J65" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K65" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L65" t="n">
-        <v>0.805390052941176</v>
+        <v>0.809755429411765</v>
       </c>
       <c r="M65" t="n">
-        <v>0.85904665</v>
+        <v>0.8666738</v>
       </c>
       <c r="N65" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O65" t="n">
+        <v>57</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.835123470588235</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.897013</v>
+      </c>
+      <c r="R65" t="n">
+        <v>73</v>
+      </c>
+      <c r="S65" t="n">
+        <v>47</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.777848111764706</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.8081445</v>
+      </c>
+      <c r="V65" t="n">
+        <v>12</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.741296221176471</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.906995</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB65" t="n">
         <v>50</v>
       </c>
-      <c r="P65" t="n">
-        <v>0.829070847058824</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.896501</v>
-      </c>
-      <c r="R65" t="n">
-        <v>66</v>
-      </c>
-      <c r="S65" t="n">
-        <v>42</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0.775405994117647</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0.78428525</v>
-      </c>
-      <c r="V65" t="n">
-        <v>11</v>
-      </c>
-      <c r="W65" t="n">
-        <v>15</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.727378945294118</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0.81617155</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>46.2</v>
-      </c>
       <c r="AC65" t="n">
-        <v>39.4</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="66">
@@ -6655,70 +6655,70 @@
         <v>89</v>
       </c>
       <c r="H66" t="n">
-        <v>0.730643094117647</v>
+        <v>0.737618317647059</v>
       </c>
       <c r="I66" t="n">
-        <v>0.73707615</v>
+        <v>0.7646312</v>
       </c>
       <c r="J66" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66" t="n">
+        <v>70</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.808765435294118</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.8659377</v>
+      </c>
+      <c r="N66" t="n">
         <v>76</v>
       </c>
-      <c r="L66" t="n">
-        <v>0.801072176470588</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8439126</v>
-      </c>
-      <c r="N66" t="n">
-        <v>72</v>
-      </c>
       <c r="O66" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
-        <v>0.826114147058824</v>
+        <v>0.835952252941176</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.88931455</v>
+        <v>0.8934968</v>
       </c>
       <c r="R66" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S66" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="T66" t="n">
-        <v>0.775299935294118</v>
+        <v>0.7776115</v>
       </c>
       <c r="U66" t="n">
-        <v>0.78430105</v>
+        <v>0.8081063</v>
       </c>
       <c r="V66" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W66" t="n">
+        <v>10</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.74353851</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.906995</v>
+      </c>
+      <c r="Z66" t="n">
         <v>14</v>
       </c>
-      <c r="X66" t="n">
-        <v>0.727706568823529</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0.8163866</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>12</v>
-      </c>
       <c r="AA66" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AB66" t="n">
-        <v>48.2</v>
+        <v>49.4</v>
       </c>
       <c r="AC66" t="n">
-        <v>45.6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -6744,10 +6744,10 @@
         <v>94</v>
       </c>
       <c r="H67" t="n">
-        <v>0.720938652941176</v>
+        <v>0.728126723529412</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7240702</v>
+        <v>0.7521235</v>
       </c>
       <c r="J67" t="n">
         <v>77</v>
@@ -6756,58 +6756,58 @@
         <v>77</v>
       </c>
       <c r="L67" t="n">
-        <v>0.796490105882353</v>
+        <v>0.803857547058824</v>
       </c>
       <c r="M67" t="n">
-        <v>0.84011985</v>
+        <v>0.8616264</v>
       </c>
       <c r="N67" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O67" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P67" t="n">
-        <v>0.822671535294118</v>
+        <v>0.833044564705882</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.87978155</v>
+        <v>0.8899084</v>
       </c>
       <c r="R67" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S67" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T67" t="n">
-        <v>0.775051</v>
+        <v>0.776923076470588</v>
       </c>
       <c r="U67" t="n">
-        <v>0.78605785</v>
+        <v>0.8053517</v>
       </c>
       <c r="V67" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="W67" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="X67" t="n">
-        <v>0.729313995294118</v>
+        <v>0.743803819411765</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.81703135</v>
+        <v>0.9065314</v>
       </c>
       <c r="Z67" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB67" t="n">
-        <v>50.6</v>
+        <v>53.8</v>
       </c>
       <c r="AC67" t="n">
-        <v>45.6</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="68">
@@ -6833,10 +6833,10 @@
         <v>99</v>
       </c>
       <c r="H68" t="n">
-        <v>0.708518605882353</v>
+        <v>0.718292911764706</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7108137</v>
+        <v>0.7422418</v>
       </c>
       <c r="J68" t="n">
         <v>79</v>
@@ -6845,58 +6845,58 @@
         <v>79</v>
       </c>
       <c r="L68" t="n">
-        <v>0.791957129411765</v>
+        <v>0.799508517647059</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8363678</v>
+        <v>0.8602594</v>
       </c>
       <c r="N68" t="n">
         <v>80</v>
       </c>
       <c r="O68" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P68" t="n">
-        <v>0.819526029411765</v>
+        <v>0.831062194117647</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.8711909</v>
+        <v>0.8864549</v>
       </c>
       <c r="R68" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S68" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="T68" t="n">
-        <v>0.774374247058824</v>
+        <v>0.777270423529412</v>
       </c>
       <c r="U68" t="n">
-        <v>0.78654885</v>
+        <v>0.8053517</v>
       </c>
       <c r="V68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W68" t="n">
+        <v>17</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.745883887058824</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.9065314</v>
+      </c>
+      <c r="Z68" t="n">
         <v>5</v>
       </c>
-      <c r="X68" t="n">
-        <v>0.729496538823529</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0.81738515</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>10</v>
-      </c>
       <c r="AA68" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB68" t="n">
-        <v>53.2</v>
+        <v>52.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>48.8</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="69">
@@ -6922,10 +6922,10 @@
         <v>104</v>
       </c>
       <c r="H69" t="n">
-        <v>0.694039758823529</v>
+        <v>0.698844105882353</v>
       </c>
       <c r="I69" t="n">
-        <v>0.6894814</v>
+        <v>0.7054045</v>
       </c>
       <c r="J69" t="n">
         <v>81</v>
@@ -6934,58 +6934,58 @@
         <v>81</v>
       </c>
       <c r="L69" t="n">
-        <v>0.786708158823529</v>
+        <v>0.792525323529412</v>
       </c>
       <c r="M69" t="n">
-        <v>0.83342905</v>
+        <v>0.8492181</v>
       </c>
       <c r="N69" t="n">
         <v>82</v>
       </c>
       <c r="O69" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P69" t="n">
-        <v>0.8161413</v>
+        <v>0.827853864705882</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.86908395</v>
+        <v>0.8762724</v>
       </c>
       <c r="R69" t="n">
         <v>82</v>
       </c>
       <c r="S69" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T69" t="n">
-        <v>0.774162229411765</v>
+        <v>0.777536464705882</v>
       </c>
       <c r="U69" t="n">
-        <v>0.7860621</v>
+        <v>0.8039998</v>
       </c>
       <c r="V69" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W69" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="X69" t="n">
-        <v>0.729531789411765</v>
+        <v>0.746045790588235</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.81703405</v>
+        <v>0.9062995</v>
       </c>
       <c r="Z69" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA69" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB69" t="n">
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="AC69" t="n">
-        <v>51.4</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="70">
@@ -7011,10 +7011,10 @@
         <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>0.676188152941177</v>
+        <v>0.679137035294118</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6629395</v>
+        <v>0.6814473</v>
       </c>
       <c r="J70" t="n">
         <v>83</v>
@@ -7023,10 +7023,10 @@
         <v>83</v>
       </c>
       <c r="L70" t="n">
-        <v>0.780054364705882</v>
+        <v>0.785176517647059</v>
       </c>
       <c r="M70" t="n">
-        <v>0.82746405</v>
+        <v>0.8436448</v>
       </c>
       <c r="N70" t="n">
         <v>84</v>
@@ -7035,46 +7035,46 @@
         <v>84</v>
       </c>
       <c r="P70" t="n">
-        <v>0.812206982352941</v>
+        <v>0.821623841176471</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.8654697</v>
+        <v>0.8737902</v>
       </c>
       <c r="R70" t="n">
         <v>84</v>
       </c>
       <c r="S70" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T70" t="n">
-        <v>0.770894541176471</v>
+        <v>0.777395447058824</v>
       </c>
       <c r="U70" t="n">
-        <v>0.78316595</v>
+        <v>0.8067204</v>
       </c>
       <c r="V70" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="W70" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="X70" t="n">
-        <v>0.73212905</v>
+        <v>0.746346474117647</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.82677105</v>
+        <v>0.9062995</v>
       </c>
       <c r="Z70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA70" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB70" t="n">
-        <v>57</v>
+        <v>53.6</v>
       </c>
       <c r="AC70" t="n">
-        <v>55.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="71">
@@ -7100,22 +7100,22 @@
         <v>114</v>
       </c>
       <c r="H71" t="n">
-        <v>0.657195117647059</v>
+        <v>0.665991070588235</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6515761</v>
+        <v>0.6365803</v>
       </c>
       <c r="J71" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K71" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L71" t="n">
-        <v>0.772615805882353</v>
+        <v>0.779785782352941</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8232779</v>
+        <v>0.8406349</v>
       </c>
       <c r="N71" t="n">
         <v>86</v>
@@ -7124,46 +7124,46 @@
         <v>86</v>
       </c>
       <c r="P71" t="n">
-        <v>0.807758964705882</v>
+        <v>0.817527358823529</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.86272575</v>
+        <v>0.8714807</v>
       </c>
       <c r="R71" t="n">
         <v>86</v>
       </c>
       <c r="S71" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T71" t="n">
-        <v>0.769725570588235</v>
+        <v>0.777128517647059</v>
       </c>
       <c r="U71" t="n">
-        <v>0.770668</v>
+        <v>0.8067204</v>
       </c>
       <c r="V71" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="W71" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="X71" t="n">
-        <v>0.733181607647059</v>
+        <v>0.746248274117647</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.82701065</v>
+        <v>0.9065314</v>
       </c>
       <c r="Z71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA71" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AB71" t="n">
-        <v>58.8</v>
+        <v>56</v>
       </c>
       <c r="AC71" t="n">
-        <v>58</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="72">
@@ -7189,22 +7189,22 @@
         <v>119</v>
       </c>
       <c r="H72" t="n">
-        <v>0.638493264705882</v>
+        <v>0.6484399</v>
       </c>
       <c r="I72" t="n">
-        <v>0.63830725</v>
+        <v>0.6254609</v>
       </c>
       <c r="J72" t="n">
         <v>88</v>
       </c>
       <c r="K72" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L72" t="n">
-        <v>0.764127323529412</v>
+        <v>0.772043</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8213741</v>
+        <v>0.8394487</v>
       </c>
       <c r="N72" t="n">
         <v>88</v>
@@ -7213,46 +7213,46 @@
         <v>88</v>
       </c>
       <c r="P72" t="n">
-        <v>0.802251</v>
+        <v>0.812100323529412</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.8615063</v>
+        <v>0.8691603</v>
       </c>
       <c r="R72" t="n">
         <v>88</v>
       </c>
       <c r="S72" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="T72" t="n">
-        <v>0.769605488235294</v>
+        <v>0.776447376470588</v>
       </c>
       <c r="U72" t="n">
-        <v>0.7708517</v>
+        <v>0.8039998</v>
       </c>
       <c r="V72" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="W72" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="X72" t="n">
-        <v>0.733438721176471</v>
+        <v>0.745770209411765</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.82708375</v>
+        <v>0.9060676</v>
       </c>
       <c r="Z72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA72" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB72" t="n">
-        <v>60</v>
+        <v>58.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>58.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="73">
@@ -7278,22 +7278,22 @@
         <v>124</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6207022</v>
+        <v>0.633420729411765</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6204381</v>
+        <v>0.6092965</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
       </c>
       <c r="K73" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L73" t="n">
-        <v>0.756710905882353</v>
+        <v>0.765496088235294</v>
       </c>
       <c r="M73" t="n">
-        <v>0.8151014</v>
+        <v>0.8367073</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7302,46 +7302,46 @@
         <v>90</v>
       </c>
       <c r="P73" t="n">
-        <v>0.797518158823529</v>
+        <v>0.807131188235294</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.8574394</v>
+        <v>0.866816</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
       </c>
       <c r="S73" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T73" t="n">
-        <v>0.7629835</v>
+        <v>0.776081617647059</v>
       </c>
       <c r="U73" t="n">
-        <v>0.7696127</v>
+        <v>0.8053517</v>
       </c>
       <c r="V73" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="W73" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="X73" t="n">
-        <v>0.733869073529412</v>
+        <v>0.745073127647059</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.8282514</v>
+        <v>0.9060676</v>
       </c>
       <c r="Z73" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA73" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB73" t="n">
-        <v>61.4</v>
+        <v>61.2</v>
       </c>
       <c r="AC73" t="n">
-        <v>61</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="74">
@@ -7367,70 +7367,70 @@
         <v>35</v>
       </c>
       <c r="H74" t="n">
-        <v>0.767085441176471</v>
+        <v>0.767009</v>
       </c>
       <c r="I74" t="n">
-        <v>0.78159885</v>
+        <v>0.7925672</v>
       </c>
       <c r="J74" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K74" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L74" t="n">
-        <v>0.819775823529412</v>
+        <v>0.820324776470588</v>
       </c>
       <c r="M74" t="n">
-        <v>0.86690795</v>
+        <v>0.8683255</v>
       </c>
       <c r="N74" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O74" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P74" t="n">
-        <v>0.841145364705882</v>
+        <v>0.841079129411765</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8957406</v>
+        <v>0.8973053</v>
       </c>
       <c r="R74" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S74" t="n">
         <v>46</v>
       </c>
       <c r="T74" t="n">
-        <v>0.7759236</v>
+        <v>0.7777991</v>
       </c>
       <c r="U74" t="n">
-        <v>0.798275</v>
+        <v>0.8228479</v>
       </c>
       <c r="V74" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X74" t="n">
-        <v>0.672288774705882</v>
+        <v>0.673190994117647</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.77488305</v>
+        <v>0.8250656</v>
       </c>
       <c r="Z74" t="n">
         <v>36</v>
       </c>
       <c r="AA74" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB74" t="n">
-        <v>30.2</v>
+        <v>34.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
@@ -7456,58 +7456,58 @@
         <v>44</v>
       </c>
       <c r="H75" t="n">
-        <v>0.767378864705882</v>
+        <v>0.765714958823529</v>
       </c>
       <c r="I75" t="n">
-        <v>0.78532725</v>
+        <v>0.792052</v>
       </c>
       <c r="J75" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K75" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L75" t="n">
-        <v>0.820689688235294</v>
+        <v>0.8190812</v>
       </c>
       <c r="M75" t="n">
-        <v>0.87105705</v>
+        <v>0.8682416</v>
       </c>
       <c r="N75" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O75" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="P75" t="n">
-        <v>0.841674941176471</v>
+        <v>0.839662258823529</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.8974184</v>
+        <v>0.8952261</v>
       </c>
       <c r="R75" t="n">
+        <v>41</v>
+      </c>
+      <c r="S75" t="n">
+        <v>54</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.771846441176471</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.7862508</v>
+      </c>
+      <c r="V75" t="n">
         <v>36</v>
       </c>
-      <c r="S75" t="n">
-        <v>29</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0.772646476470588</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0.78782255</v>
-      </c>
-      <c r="V75" t="n">
-        <v>27</v>
-      </c>
       <c r="W75" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="X75" t="n">
-        <v>0.690011049411765</v>
+        <v>0.688225595294118</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.7919645</v>
+        <v>0.8568132</v>
       </c>
       <c r="Z75" t="n">
         <v>34</v>
@@ -7516,10 +7516,10 @@
         <v>33</v>
       </c>
       <c r="AB75" t="n">
-        <v>31.2</v>
+        <v>41</v>
       </c>
       <c r="AC75" t="n">
-        <v>17.6</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="76">
@@ -7545,70 +7545,70 @@
         <v>49</v>
       </c>
       <c r="H76" t="n">
-        <v>0.765665594117647</v>
+        <v>0.764803729411765</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7850049</v>
+        <v>0.8002026</v>
       </c>
       <c r="J76" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>0.819531288235294</v>
+        <v>0.818825935294118</v>
       </c>
       <c r="M76" t="n">
-        <v>0.86873875</v>
+        <v>0.8691152</v>
       </c>
       <c r="N76" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O76" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P76" t="n">
-        <v>0.840737211764706</v>
+        <v>0.839051623529412</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.8982203</v>
+        <v>0.8978174</v>
       </c>
       <c r="R76" t="n">
         <v>44</v>
       </c>
       <c r="S76" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="T76" t="n">
-        <v>0.773686</v>
+        <v>0.7730057</v>
       </c>
       <c r="U76" t="n">
-        <v>0.7854408</v>
+        <v>0.7833446</v>
       </c>
       <c r="V76" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="X76" t="n">
-        <v>0.699080597058824</v>
+        <v>0.700918139411765</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.80798845</v>
+        <v>0.8675394</v>
       </c>
       <c r="Z76" t="n">
         <v>32</v>
       </c>
       <c r="AA76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB76" t="n">
-        <v>35.4</v>
+        <v>42.2</v>
       </c>
       <c r="AC76" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -7634,58 +7634,58 @@
         <v>54</v>
       </c>
       <c r="H77" t="n">
-        <v>0.762351805882353</v>
+        <v>0.762154323529412</v>
       </c>
       <c r="I77" t="n">
-        <v>0.78552635</v>
+        <v>0.7977915</v>
       </c>
       <c r="J77" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K77" t="n">
         <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>0.817367894117647</v>
+        <v>0.817252694117647</v>
       </c>
       <c r="M77" t="n">
-        <v>0.86720235</v>
+        <v>0.867284</v>
       </c>
       <c r="N77" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O77" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P77" t="n">
-        <v>0.838241029411765</v>
+        <v>0.838112164705882</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.8968684</v>
+        <v>0.8967615</v>
       </c>
       <c r="R77" t="n">
+        <v>53</v>
+      </c>
+      <c r="S77" t="n">
         <v>49</v>
       </c>
-      <c r="S77" t="n">
-        <v>36</v>
-      </c>
       <c r="T77" t="n">
-        <v>0.772960294117647</v>
+        <v>0.772924276470588</v>
       </c>
       <c r="U77" t="n">
-        <v>0.7848517</v>
+        <v>0.7878374</v>
       </c>
       <c r="V77" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="W77" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X77" t="n">
-        <v>0.703222172941177</v>
+        <v>0.703155819411765</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.80981405</v>
+        <v>0.8789632</v>
       </c>
       <c r="Z77" t="n">
         <v>30</v>
@@ -7694,10 +7694,10 @@
         <v>29</v>
       </c>
       <c r="AB77" t="n">
-        <v>38.6</v>
+        <v>45.8</v>
       </c>
       <c r="AC77" t="n">
-        <v>22.6</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="78">
@@ -7723,70 +7723,70 @@
         <v>59</v>
       </c>
       <c r="H78" t="n">
-        <v>0.760882623529412</v>
+        <v>0.760701576470588</v>
       </c>
       <c r="I78" t="n">
-        <v>0.78163055</v>
+        <v>0.7917021</v>
       </c>
       <c r="J78" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="K78" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L78" t="n">
-        <v>0.816098605882353</v>
+        <v>0.815972388235294</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8685542</v>
+        <v>0.8679041</v>
       </c>
       <c r="N78" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O78" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="P78" t="n">
-        <v>0.837480870588235</v>
+        <v>0.837341405882353</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.89817845</v>
+        <v>0.8983533</v>
       </c>
       <c r="R78" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="S78" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="T78" t="n">
-        <v>0.774443005882353</v>
+        <v>0.774406135294118</v>
       </c>
       <c r="U78" t="n">
-        <v>0.7848173</v>
+        <v>0.7854916</v>
       </c>
       <c r="V78" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="W78" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="X78" t="n">
-        <v>0.710349123529412</v>
+        <v>0.710279098235294</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.81551135</v>
+        <v>0.8893301</v>
       </c>
       <c r="Z78" t="n">
         <v>28</v>
       </c>
       <c r="AA78" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB78" t="n">
-        <v>37.8</v>
+        <v>47.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>20.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="79">
@@ -7812,70 +7812,70 @@
         <v>64</v>
       </c>
       <c r="H79" t="n">
-        <v>0.759021935294118</v>
+        <v>0.758846494117647</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7650651</v>
+        <v>0.7711083</v>
       </c>
       <c r="J79" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K79" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L79" t="n">
-        <v>0.813928411764706</v>
+        <v>0.813800770588235</v>
       </c>
       <c r="M79" t="n">
-        <v>0.86928915</v>
+        <v>0.869534</v>
       </c>
       <c r="N79" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O79" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P79" t="n">
-        <v>0.836164664705882</v>
+        <v>0.836011229411765</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.8988212</v>
+        <v>0.8993624</v>
       </c>
       <c r="R79" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="S79" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="T79" t="n">
-        <v>0.775086058823529</v>
+        <v>0.775048911764706</v>
       </c>
       <c r="U79" t="n">
-        <v>0.78316125</v>
+        <v>0.7838626</v>
       </c>
       <c r="V79" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="W79" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="X79" t="n">
-        <v>0.713670058235294</v>
+        <v>0.713598194705882</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.81489595</v>
+        <v>0.8891052</v>
       </c>
       <c r="Z79" t="n">
         <v>27</v>
       </c>
       <c r="AA79" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB79" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AC79" t="n">
-        <v>29.4</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="80">
@@ -7901,70 +7901,70 @@
         <v>69</v>
       </c>
       <c r="H80" t="n">
-        <v>0.754466888235294</v>
+        <v>0.754311529411765</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7629613</v>
+        <v>0.7692348</v>
       </c>
       <c r="J80" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L80" t="n">
-        <v>0.812779070588235</v>
+        <v>0.812657329411765</v>
       </c>
       <c r="M80" t="n">
-        <v>0.8667012</v>
+        <v>0.8683876</v>
       </c>
       <c r="N80" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O80" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P80" t="n">
-        <v>0.835498505882353</v>
+        <v>0.835338470588235</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.8978549</v>
+        <v>0.8987167</v>
       </c>
       <c r="R80" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="S80" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="T80" t="n">
-        <v>0.775989652941176</v>
+        <v>0.775951882352941</v>
       </c>
       <c r="U80" t="n">
-        <v>0.7841761</v>
+        <v>0.7890732</v>
       </c>
       <c r="V80" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="W80" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="X80" t="n">
-        <v>0.716991946470588</v>
+        <v>0.716917540588235</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.8163639</v>
+        <v>0.8884304</v>
       </c>
       <c r="Z80" t="n">
         <v>25</v>
       </c>
       <c r="AA80" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AB80" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC80" t="n">
         <v>39.6</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>31.6</v>
       </c>
     </row>
     <row r="81">
@@ -7990,70 +7990,70 @@
         <v>74</v>
       </c>
       <c r="H81" t="n">
-        <v>0.747954041176471</v>
+        <v>0.751764988235294</v>
       </c>
       <c r="I81" t="n">
-        <v>0.76322755</v>
+        <v>0.7723119</v>
       </c>
       <c r="J81" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K81" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L81" t="n">
-        <v>0.810188905882353</v>
+        <v>0.815144517647059</v>
       </c>
       <c r="M81" t="n">
-        <v>0.86716915</v>
+        <v>0.8714851</v>
       </c>
       <c r="N81" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O81" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P81" t="n">
-        <v>0.833178570588235</v>
+        <v>0.838782888235294</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.89836165</v>
+        <v>0.9022361</v>
       </c>
       <c r="R81" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="S81" t="n">
+        <v>31</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.780354894117647</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.8150412</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+      <c r="W81" t="n">
+        <v>3</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.734816678235294</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.9083843</v>
+      </c>
+      <c r="Z81" t="n">
         <v>22</v>
       </c>
-      <c r="T81" t="n">
-        <v>0.774837029411765</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.7830691</v>
-      </c>
-      <c r="V81" t="n">
-        <v>16</v>
-      </c>
-      <c r="W81" t="n">
-        <v>28</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.719740768823529</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0.81627825</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>23</v>
-      </c>
       <c r="AA81" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AB81" t="n">
-        <v>44.2</v>
+        <v>41.2</v>
       </c>
       <c r="AC81" t="n">
-        <v>31.4</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="82">
@@ -8079,70 +8079,70 @@
         <v>79</v>
       </c>
       <c r="H82" t="n">
-        <v>0.746000882352941</v>
+        <v>0.748841082352941</v>
       </c>
       <c r="I82" t="n">
-        <v>0.76339045</v>
+        <v>0.7748339</v>
       </c>
       <c r="J82" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K82" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L82" t="n">
-        <v>0.808984141176471</v>
+        <v>0.815797447058824</v>
       </c>
       <c r="M82" t="n">
-        <v>0.86604915</v>
+        <v>0.8685245</v>
       </c>
       <c r="N82" t="n">
         <v>64</v>
       </c>
       <c r="O82" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P82" t="n">
-        <v>0.831876976470588</v>
+        <v>0.840883358823529</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.8990371</v>
+        <v>0.9049333</v>
       </c>
       <c r="R82" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="S82" t="n">
+        <v>23</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.780503217647059</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.8136275</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
+      <c r="W82" t="n">
+        <v>5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.738349137647059</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.9081529</v>
+      </c>
+      <c r="Z82" t="n">
         <v>20</v>
       </c>
-      <c r="T82" t="n">
-        <v>0.776158076470588</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0.7835662</v>
-      </c>
-      <c r="V82" t="n">
-        <v>2</v>
-      </c>
-      <c r="W82" t="n">
-        <v>23</v>
-      </c>
-      <c r="X82" t="n">
-        <v>0.723810894117647</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>0.81619125</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>21</v>
-      </c>
       <c r="AA82" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AB82" t="n">
-        <v>43.2</v>
+        <v>38.8</v>
       </c>
       <c r="AC82" t="n">
-        <v>32.8</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="83">
@@ -8168,70 +8168,70 @@
         <v>84</v>
       </c>
       <c r="H83" t="n">
-        <v>0.737833335294118</v>
+        <v>0.741752364705882</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7617899</v>
+        <v>0.7630407</v>
       </c>
       <c r="J83" t="n">
         <v>73</v>
       </c>
       <c r="K83" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L83" t="n">
-        <v>0.805524211764706</v>
+        <v>0.810839117647059</v>
       </c>
       <c r="M83" t="n">
-        <v>0.85836825</v>
+        <v>0.8658431</v>
       </c>
       <c r="N83" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O83" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P83" t="n">
-        <v>0.829463011764706</v>
+        <v>0.836558241176471</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8964296</v>
+        <v>0.8981855</v>
       </c>
       <c r="R83" t="n">
         <v>64</v>
       </c>
       <c r="S83" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T83" t="n">
-        <v>0.775885135294118</v>
+        <v>0.778223194117647</v>
       </c>
       <c r="U83" t="n">
-        <v>0.7840397</v>
+        <v>0.8094902</v>
       </c>
       <c r="V83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W83" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X83" t="n">
-        <v>0.723933325294118</v>
+        <v>0.739365598823529</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.81647115</v>
+        <v>0.9072267</v>
       </c>
       <c r="Z83" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA83" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB83" t="n">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
       <c r="AC83" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -8257,70 +8257,70 @@
         <v>89</v>
       </c>
       <c r="H84" t="n">
-        <v>0.730476029411765</v>
+        <v>0.735675858823529</v>
       </c>
       <c r="I84" t="n">
-        <v>0.73823215</v>
+        <v>0.7622628</v>
       </c>
       <c r="J84" t="n">
         <v>76</v>
       </c>
       <c r="K84" t="n">
+        <v>76</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.809696105882353</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8667369</v>
+      </c>
+      <c r="N84" t="n">
         <v>75</v>
       </c>
-      <c r="L84" t="n">
-        <v>0.801984741176471</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.844016</v>
-      </c>
-      <c r="N84" t="n">
-        <v>71</v>
-      </c>
       <c r="O84" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P84" t="n">
-        <v>0.827176994117647</v>
+        <v>0.837346547058823</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.8913632</v>
+        <v>0.8965456</v>
       </c>
       <c r="R84" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="S84" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T84" t="n">
-        <v>0.775862123529412</v>
+        <v>0.778292070588235</v>
       </c>
       <c r="U84" t="n">
-        <v>0.78398335</v>
+        <v>0.8081445</v>
       </c>
       <c r="V84" t="n">
         <v>7</v>
       </c>
       <c r="W84" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X84" t="n">
-        <v>0.724619797058824</v>
+        <v>0.742426001176471</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.8164031</v>
+        <v>0.906995</v>
       </c>
       <c r="Z84" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA84" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB84" t="n">
-        <v>48.6</v>
+        <v>46.2</v>
       </c>
       <c r="AC84" t="n">
-        <v>45.8</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="85">
@@ -8346,10 +8346,10 @@
         <v>94</v>
       </c>
       <c r="H85" t="n">
-        <v>0.716513547058824</v>
+        <v>0.727618988235294</v>
       </c>
       <c r="I85" t="n">
-        <v>0.71481115</v>
+        <v>0.7464562</v>
       </c>
       <c r="J85" t="n">
         <v>78</v>
@@ -8358,58 +8358,58 @@
         <v>78</v>
       </c>
       <c r="L85" t="n">
-        <v>0.796459511764706</v>
+        <v>0.805823288235294</v>
       </c>
       <c r="M85" t="n">
-        <v>0.8389966</v>
+        <v>0.8607851</v>
       </c>
       <c r="N85" t="n">
         <v>77</v>
       </c>
       <c r="O85" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P85" t="n">
-        <v>0.823290035294118</v>
+        <v>0.835252441176471</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.8810488</v>
+        <v>0.8926334</v>
       </c>
       <c r="R85" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S85" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T85" t="n">
-        <v>0.774537970588235</v>
+        <v>0.778373641176471</v>
       </c>
       <c r="U85" t="n">
-        <v>0.7853894</v>
+        <v>0.8053517</v>
       </c>
       <c r="V85" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="W85" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X85" t="n">
-        <v>0.724957472352941</v>
+        <v>0.743519297647059</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.81701895</v>
+        <v>0.9072267</v>
       </c>
       <c r="Z85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA85" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB85" t="n">
-        <v>52.4</v>
+        <v>49.4</v>
       </c>
       <c r="AC85" t="n">
-        <v>46.6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86">
@@ -8435,10 +8435,10 @@
         <v>99</v>
       </c>
       <c r="H86" t="n">
-        <v>0.705236635294118</v>
+        <v>0.715161252941176</v>
       </c>
       <c r="I86" t="n">
-        <v>0.69987075</v>
+        <v>0.7337409</v>
       </c>
       <c r="J86" t="n">
         <v>80</v>
@@ -8447,58 +8447,58 @@
         <v>80</v>
       </c>
       <c r="L86" t="n">
-        <v>0.792264641176471</v>
+        <v>0.801114041176471</v>
       </c>
       <c r="M86" t="n">
-        <v>0.8345181</v>
+        <v>0.8594707</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
       </c>
       <c r="O86" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P86" t="n">
-        <v>0.820207447058824</v>
+        <v>0.833455741176471</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.87250915</v>
+        <v>0.8899624</v>
       </c>
       <c r="R86" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S86" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="T86" t="n">
-        <v>0.773976305882353</v>
+        <v>0.778010605882353</v>
       </c>
       <c r="U86" t="n">
-        <v>0.7858997</v>
+        <v>0.8053517</v>
       </c>
       <c r="V86" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="W86" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="X86" t="n">
-        <v>0.725182411764706</v>
+        <v>0.744375598823529</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.81738265</v>
+        <v>0.9067632</v>
       </c>
       <c r="Z86" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB86" t="n">
-        <v>54.6</v>
+        <v>52</v>
       </c>
       <c r="AC86" t="n">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="87">
@@ -8524,10 +8524,10 @@
         <v>104</v>
       </c>
       <c r="H87" t="n">
-        <v>0.692797429411765</v>
+        <v>0.696310882352941</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6810385</v>
+        <v>0.7023132</v>
       </c>
       <c r="J87" t="n">
         <v>82</v>
@@ -8536,58 +8536,58 @@
         <v>82</v>
       </c>
       <c r="L87" t="n">
-        <v>0.788058652941176</v>
+        <v>0.795072382352941</v>
       </c>
       <c r="M87" t="n">
-        <v>0.8308821</v>
+        <v>0.8521098</v>
       </c>
       <c r="N87" t="n">
         <v>81</v>
       </c>
       <c r="O87" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P87" t="n">
-        <v>0.817586323529412</v>
+        <v>0.83087</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.86810605</v>
+        <v>0.8831632</v>
       </c>
       <c r="R87" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S87" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T87" t="n">
-        <v>0.774398023529412</v>
+        <v>0.778211023529412</v>
       </c>
       <c r="U87" t="n">
-        <v>0.7861549</v>
+        <v>0.8067204</v>
       </c>
       <c r="V87" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="W87" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X87" t="n">
-        <v>0.726221438235294</v>
+        <v>0.74507575</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.8174511</v>
+        <v>0.9065314</v>
       </c>
       <c r="Z87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA87" t="n">
         <v>15</v>
       </c>
-      <c r="AA87" t="n">
-        <v>9</v>
-      </c>
       <c r="AB87" t="n">
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="AC87" t="n">
-        <v>51.4</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="88">
@@ -8613,10 +8613,10 @@
         <v>109</v>
       </c>
       <c r="H88" t="n">
-        <v>0.675658952941177</v>
+        <v>0.677594964705882</v>
       </c>
       <c r="I88" t="n">
-        <v>0.66024875</v>
+        <v>0.6646327</v>
       </c>
       <c r="J88" t="n">
         <v>84</v>
@@ -8625,10 +8625,10 @@
         <v>84</v>
       </c>
       <c r="L88" t="n">
-        <v>0.781938647058824</v>
+        <v>0.787789847058823</v>
       </c>
       <c r="M88" t="n">
-        <v>0.8275371</v>
+        <v>0.84375</v>
       </c>
       <c r="N88" t="n">
         <v>83</v>
@@ -8637,46 +8637,46 @@
         <v>83</v>
       </c>
       <c r="P88" t="n">
-        <v>0.814023882352941</v>
+        <v>0.825152429411765</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.8658565</v>
+        <v>0.8787115</v>
       </c>
       <c r="R88" t="n">
         <v>83</v>
       </c>
       <c r="S88" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T88" t="n">
-        <v>0.772542476470588</v>
+        <v>0.778154194117647</v>
       </c>
       <c r="U88" t="n">
-        <v>0.7839436</v>
+        <v>0.8067204</v>
       </c>
       <c r="V88" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="W88" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X88" t="n">
-        <v>0.731913788235294</v>
+        <v>0.745432395294118</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.8261656</v>
+        <v>0.9065314</v>
       </c>
       <c r="Z88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA88" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB88" t="n">
-        <v>56.8</v>
+        <v>53.4</v>
       </c>
       <c r="AC88" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="89">
@@ -8702,22 +8702,22 @@
         <v>114</v>
       </c>
       <c r="H89" t="n">
-        <v>0.659696182352941</v>
+        <v>0.665709929411765</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6553011</v>
+        <v>0.6314287</v>
       </c>
       <c r="J89" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K89" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L89" t="n">
-        <v>0.775556158823529</v>
+        <v>0.782123835294118</v>
       </c>
       <c r="M89" t="n">
-        <v>0.8252453</v>
+        <v>0.8409908</v>
       </c>
       <c r="N89" t="n">
         <v>85</v>
@@ -8726,46 +8726,46 @@
         <v>85</v>
       </c>
       <c r="P89" t="n">
-        <v>0.8103332</v>
+        <v>0.8209781</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.86405285</v>
+        <v>0.8771736</v>
       </c>
       <c r="R89" t="n">
         <v>85</v>
       </c>
       <c r="S89" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T89" t="n">
-        <v>0.770256605882353</v>
+        <v>0.778297641176471</v>
       </c>
       <c r="U89" t="n">
-        <v>0.77056385</v>
+        <v>0.8067204</v>
       </c>
       <c r="V89" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="W89" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>0.731068090588235</v>
+        <v>0.745886162352941</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.8261932</v>
+        <v>0.9067632</v>
       </c>
       <c r="Z89" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA89" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB89" t="n">
-        <v>58.8</v>
+        <v>53.2</v>
       </c>
       <c r="AC89" t="n">
-        <v>58.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
@@ -8791,22 +8791,22 @@
         <v>119</v>
       </c>
       <c r="H90" t="n">
-        <v>0.644110452941177</v>
+        <v>0.651436158823529</v>
       </c>
       <c r="I90" t="n">
-        <v>0.63830315</v>
+        <v>0.6258592</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
       </c>
       <c r="K90" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L90" t="n">
-        <v>0.768064511764706</v>
+        <v>0.774979347058824</v>
       </c>
       <c r="M90" t="n">
-        <v>0.82194415</v>
+        <v>0.8397618</v>
       </c>
       <c r="N90" t="n">
         <v>87</v>
@@ -8815,46 +8815,46 @@
         <v>87</v>
       </c>
       <c r="P90" t="n">
-        <v>0.805564988235294</v>
+        <v>0.815820588235294</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.8620624</v>
+        <v>0.8753928</v>
       </c>
       <c r="R90" t="n">
         <v>87</v>
       </c>
       <c r="S90" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T90" t="n">
-        <v>0.770133852941176</v>
+        <v>0.777299</v>
       </c>
       <c r="U90" t="n">
-        <v>0.7706102</v>
+        <v>0.8039998</v>
       </c>
       <c r="V90" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W90" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="X90" t="n">
-        <v>0.731228130588235</v>
+        <v>0.745389017647059</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.82646795</v>
+        <v>0.9060676</v>
       </c>
       <c r="Z90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA90" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AB90" t="n">
-        <v>60</v>
+        <v>57.6</v>
       </c>
       <c r="AC90" t="n">
-        <v>59.6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91">
@@ -8880,22 +8880,22 @@
         <v>124</v>
       </c>
       <c r="H91" t="n">
-        <v>0.629941564705882</v>
+        <v>0.641763264705882</v>
       </c>
       <c r="I91" t="n">
-        <v>0.6229908</v>
+        <v>0.6092965</v>
       </c>
       <c r="J91" t="n">
         <v>89</v>
       </c>
       <c r="K91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L91" t="n">
-        <v>0.760758347058824</v>
+        <v>0.769735011764706</v>
       </c>
       <c r="M91" t="n">
-        <v>0.81694865</v>
+        <v>0.8383595</v>
       </c>
       <c r="N91" t="n">
         <v>89</v>
@@ -8904,10 +8904,10 @@
         <v>89</v>
       </c>
       <c r="P91" t="n">
-        <v>0.801099841176471</v>
+        <v>0.811552535294118</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.8587494</v>
+        <v>0.8712918</v>
       </c>
       <c r="R91" t="n">
         <v>89</v>
@@ -8916,34 +8916,34 @@
         <v>88</v>
       </c>
       <c r="T91" t="n">
-        <v>0.763650082352941</v>
+        <v>0.777223735294118</v>
       </c>
       <c r="U91" t="n">
-        <v>0.7690304</v>
+        <v>0.8053517</v>
       </c>
       <c r="V91" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="W91" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="X91" t="n">
-        <v>0.732110006470588</v>
+        <v>0.745423638823529</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.8277866</v>
+        <v>0.9062995</v>
       </c>
       <c r="Z91" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AB91" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC91" t="n">
         <v>61.4</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>60.8</v>
       </c>
     </row>
   </sheetData>
